--- a/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
+++ b/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
@@ -534,7 +534,8 @@
           <t>functions
 complete
 parameter(s)
-argument(s)body</t>
+argument(s)
+body</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
@@ -543,7 +544,8 @@
 ++
 :
 !!
-list comprehension</t>
+list comprehension
+range</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -577,7 +579,8 @@
         <is>
           <t>case expressions
 complete
-parameter(s), argument(s)</t>
+parameter(s)
+argument(s)</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
+++ b/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
@@ -30,7 +30,7 @@
       <sz val="14"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -57,6 +57,11 @@
         <fgColor rgb="00FF0000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0000FF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -70,7 +75,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -88,6 +93,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -737,7 +745,7 @@
         </is>
       </c>
       <c r="E5" s="6" t="n">
-        <v>0.09</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="6">
@@ -918,7 +926,7 @@
         </is>
       </c>
       <c r="E10" s="6" t="n">
-        <v>0.13</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
@@ -979,7 +987,7 @@
         </is>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="13">
@@ -1018,7 +1026,7 @@
         </is>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="14">
@@ -1125,7 +1133,7 @@
         </is>
       </c>
       <c r="E16" s="6" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="17">
@@ -1174,7 +1182,7 @@
         </is>
       </c>
       <c r="E17" s="6" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
@@ -1214,7 +1222,7 @@
         </is>
       </c>
       <c r="E18" s="6" t="n">
-        <v>0.3</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="19">
@@ -1258,7 +1266,7 @@
         </is>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="20">
@@ -1298,7 +1306,7 @@
         </is>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="21">
@@ -1343,7 +1351,7 @@
         </is>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.23</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="22">
@@ -1381,7 +1389,7 @@
         </is>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="23">
@@ -1416,7 +1424,7 @@
         </is>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.4</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="24">
@@ -1452,7 +1460,7 @@
         </is>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="25">
@@ -1599,7 +1607,7 @@
         </is>
       </c>
       <c r="E28" s="6" t="n">
-        <v>0.57</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="29">
@@ -1730,7 +1738,7 @@
         </is>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.18</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="32">
@@ -1770,7 +1778,7 @@
         </is>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="33">
@@ -1822,7 +1830,7 @@
         </is>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="34">
@@ -1928,7 +1936,7 @@
         </is>
       </c>
       <c r="E35" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1988,7 +1996,7 @@
         </is>
       </c>
       <c r="E36" s="6" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="37">
@@ -2045,7 +2053,7 @@
         </is>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.34</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="38">
@@ -2079,7 +2087,7 @@
         </is>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="39">
@@ -2114,7 +2122,7 @@
         </is>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.53</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="40">
@@ -2144,13 +2152,13 @@
           <t xml:space="preserve"> -1</t>
         </is>
       </c>
-      <c r="D40" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D40" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E40" s="6" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2180,13 +2188,13 @@
           <t xml:space="preserve"> y = -1</t>
         </is>
       </c>
-      <c r="D41" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D41" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E41" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42">
@@ -2303,7 +2311,7 @@
         </is>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="45">
@@ -2362,7 +2370,7 @@
         </is>
       </c>
       <c r="E46" s="6" t="n">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="47">
@@ -2438,7 +2446,7 @@
         </is>
       </c>
       <c r="E48" s="6" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="49">
@@ -2486,7 +2494,7 @@
         </is>
       </c>
       <c r="E49" s="6" t="n">
-        <v>0.1</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -2527,13 +2535,13 @@
           <t xml:space="preserve"> res</t>
         </is>
       </c>
-      <c r="D50" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D50" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -2662,7 +2670,7 @@
         </is>
       </c>
       <c r="E53" s="6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="54">
@@ -2699,7 +2707,7 @@
         </is>
       </c>
       <c r="E54" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2742,7 +2750,7 @@
         </is>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="56">
@@ -2784,7 +2792,7 @@
         </is>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="57">
@@ -2828,7 +2836,7 @@
         </is>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="58">
@@ -2871,7 +2879,7 @@
         </is>
       </c>
       <c r="E58" s="6" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="59">
@@ -2917,7 +2925,7 @@
         </is>
       </c>
       <c r="E59" s="6" t="n">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="60">
@@ -2964,7 +2972,7 @@
         </is>
       </c>
       <c r="E60" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="61">
@@ -3011,7 +3019,7 @@
         </is>
       </c>
       <c r="E61" s="6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3057,7 +3065,7 @@
         </is>
       </c>
       <c r="E62" s="6" t="n">
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="63">
@@ -3146,7 +3154,7 @@
         </is>
       </c>
       <c r="E64" s="6" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="65">
@@ -3189,7 +3197,7 @@
         </is>
       </c>
       <c r="E65" s="6" t="n">
-        <v>0.29</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="66">
@@ -3278,7 +3286,7 @@
         </is>
       </c>
       <c r="E67" s="6" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="68">
@@ -3358,7 +3366,7 @@
         </is>
       </c>
       <c r="E69" s="6" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="70">
@@ -3429,7 +3437,7 @@
         </is>
       </c>
       <c r="E71" s="6" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="72">
@@ -3460,7 +3468,7 @@
         </is>
       </c>
       <c r="E72" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="73">
@@ -3490,7 +3498,7 @@
         </is>
       </c>
       <c r="E73" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="74">
@@ -3515,13 +3523,13 @@
           <t xml:space="preserve"> toUpper c</t>
         </is>
       </c>
-      <c r="D74" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D74" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E74" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -3584,7 +3592,7 @@
         </is>
       </c>
       <c r="E75" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="76">
@@ -3646,7 +3654,7 @@
         </is>
       </c>
       <c r="E76" s="6" t="n">
-        <v>0.84</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="77">
@@ -3694,13 +3702,13 @@
           <t xml:space="preserve"> digitToInt d2,</t>
         </is>
       </c>
-      <c r="D77" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D77" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E77" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3761,7 +3769,7 @@
         </is>
       </c>
       <c r="E78" s="6" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="79">
@@ -3823,7 +3831,7 @@
         </is>
       </c>
       <c r="E79" s="6" t="n">
-        <v>0.61</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="80">
@@ -3857,7 +3865,7 @@
         </is>
       </c>
       <c r="E80" s="6" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="81">
@@ -4035,7 +4043,7 @@
         </is>
       </c>
       <c r="E85" s="6" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="86">
@@ -4099,7 +4107,7 @@
         </is>
       </c>
       <c r="E87" s="6" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="88">
@@ -4138,7 +4146,7 @@
         </is>
       </c>
       <c r="E88" s="6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="89">
@@ -4223,7 +4231,7 @@
         </is>
       </c>
       <c r="E90" s="6" t="n">
-        <v>0.33</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="91">
@@ -4271,7 +4279,7 @@
         </is>
       </c>
       <c r="E91" s="6" t="n">
-        <v>0.43</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="92">
@@ -4414,7 +4422,7 @@
         </is>
       </c>
       <c r="E95" s="6" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="96">
@@ -4449,7 +4457,7 @@
         </is>
       </c>
       <c r="E96" s="6" t="n">
-        <v>0.42</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="97">
@@ -4484,7 +4492,7 @@
         </is>
       </c>
       <c r="E97" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -4708,7 +4716,7 @@
         </is>
       </c>
       <c r="E102" s="6" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="103">
@@ -4776,7 +4784,7 @@
         </is>
       </c>
       <c r="E104" s="6" t="n">
-        <v>0.27</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="105">
@@ -4805,7 +4813,7 @@
         </is>
       </c>
       <c r="E105" s="6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106">
@@ -4877,7 +4885,7 @@
         </is>
       </c>
       <c r="E107" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
@@ -4926,7 +4934,7 @@
         </is>
       </c>
       <c r="E108" s="6" t="n">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="109">
@@ -4967,7 +4975,7 @@
         </is>
       </c>
       <c r="E109" s="6" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="110">
@@ -5014,7 +5022,7 @@
         </is>
       </c>
       <c r="E110" s="6" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="111">
@@ -5058,13 +5066,13 @@
           <t xml:space="preserve"> b * d</t>
         </is>
       </c>
-      <c r="D111" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D111" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E111" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -5149,7 +5157,7 @@
         </is>
       </c>
       <c r="E113" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="114">
@@ -5226,7 +5234,7 @@
         </is>
       </c>
       <c r="E115" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
@@ -5273,7 +5281,7 @@
         </is>
       </c>
       <c r="E116" s="6" t="n">
-        <v>0.32</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="117">
@@ -5309,7 +5317,7 @@
         </is>
       </c>
       <c r="E117" s="6" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="118">
@@ -5345,7 +5353,7 @@
         </is>
       </c>
       <c r="E118" s="6" t="n">
-        <v>0.18</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="119">
@@ -5381,7 +5389,7 @@
         </is>
       </c>
       <c r="E119" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="120">
@@ -5421,7 +5429,7 @@
         </is>
       </c>
       <c r="E120" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121">
@@ -5461,7 +5469,7 @@
         </is>
       </c>
       <c r="E121" s="6" t="n">
-        <v>0.22</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="122">
@@ -5498,7 +5506,7 @@
         </is>
       </c>
       <c r="E122" s="6" t="n">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="123">
@@ -5604,7 +5612,7 @@
         </is>
       </c>
       <c r="E125" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="126">
@@ -5685,7 +5693,7 @@
         </is>
       </c>
       <c r="E127" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="128">
@@ -5723,7 +5731,7 @@
         </is>
       </c>
       <c r="E128" s="6" t="n">
-        <v>0.19</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="129">
@@ -5802,7 +5810,7 @@
         </is>
       </c>
       <c r="E130" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131">
@@ -5851,13 +5859,13 @@
           <t xml:space="preserve"> "Six"</t>
         </is>
       </c>
-      <c r="D131" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D131" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E131" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -5909,13 +5917,13 @@
           <t xml:space="preserve"> "Nine"</t>
         </is>
       </c>
-      <c r="D132" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D132" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E132" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -5957,13 +5965,13 @@
           <t xml:space="preserve"> x &lt;= 9</t>
         </is>
       </c>
-      <c r="D133" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D133" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E133" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -6009,13 +6017,13 @@
           <t xml:space="preserve"> "Three"</t>
         </is>
       </c>
-      <c r="D134" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D134" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E134" s="6" t="n">
-        <v>0.93</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -6144,7 +6152,7 @@
         </is>
       </c>
       <c r="E137" s="6" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
@@ -6212,7 +6220,7 @@
         </is>
       </c>
       <c r="E139" s="6" t="n">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="140">
@@ -6278,7 +6286,7 @@
         </is>
       </c>
       <c r="E141" s="6" t="n">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="142">
@@ -6310,7 +6318,7 @@
         </is>
       </c>
       <c r="E142" s="6" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="143">
@@ -6342,7 +6350,7 @@
         </is>
       </c>
       <c r="E143" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
@@ -6421,7 +6429,7 @@
         </is>
       </c>
       <c r="E145" s="6" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="146">
@@ -6540,7 +6548,7 @@
         </is>
       </c>
       <c r="E147" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
@@ -6661,7 +6669,7 @@
         </is>
       </c>
       <c r="E149" s="6" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="150">
@@ -6718,7 +6726,7 @@
         </is>
       </c>
       <c r="E150" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="151">
@@ -6764,7 +6772,7 @@
         </is>
       </c>
       <c r="E151" s="6" t="n">
-        <v>0.51</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="152">
@@ -6808,7 +6816,7 @@
         </is>
       </c>
       <c r="E152" s="6" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="153">
@@ -6855,7 +6863,7 @@
         </is>
       </c>
       <c r="E153" s="6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="154">
@@ -6901,7 +6909,7 @@
         </is>
       </c>
       <c r="E154" s="6" t="n">
-        <v>0.35</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="155">
@@ -6948,7 +6956,7 @@
         </is>
       </c>
       <c r="E155" s="6" t="n">
-        <v>0.43</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="156">
@@ -7025,7 +7033,7 @@
         </is>
       </c>
       <c r="E157" s="6" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="158">
@@ -7064,7 +7072,7 @@
         </is>
       </c>
       <c r="E158" s="6" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="159">
@@ -7120,7 +7128,7 @@
         </is>
       </c>
       <c r="E160" s="6" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="161">
@@ -7283,7 +7291,7 @@
         </is>
       </c>
       <c r="E164" s="6" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="165">
@@ -7322,7 +7330,7 @@
         </is>
       </c>
       <c r="E165" s="6" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -7405,7 +7413,7 @@
         </is>
       </c>
       <c r="E167" s="6" t="n">
-        <v>0.3</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="168">
@@ -7479,7 +7487,7 @@
         </is>
       </c>
       <c r="E169" s="6" t="n">
-        <v>0.55</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="170">
@@ -7516,7 +7524,7 @@
         </is>
       </c>
       <c r="E170" s="6" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="171">
@@ -7591,7 +7599,7 @@
         </is>
       </c>
       <c r="E172" s="6" t="n">
-        <v>0.64</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="173">
@@ -7703,7 +7711,7 @@
         </is>
       </c>
       <c r="E175" s="6" t="n">
-        <v>0.54</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="176">
@@ -7820,7 +7828,7 @@
         </is>
       </c>
       <c r="E178" s="6" t="n">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="179">
@@ -7941,7 +7949,7 @@
         </is>
       </c>
       <c r="E181" s="6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="182">
@@ -7979,7 +7987,7 @@
         </is>
       </c>
       <c r="E182" s="6" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="183">
@@ -8023,7 +8031,7 @@
         </is>
       </c>
       <c r="E183" s="6" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="184">
@@ -8061,7 +8069,7 @@
         </is>
       </c>
       <c r="E184" s="6" t="n">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="185">
@@ -8104,7 +8112,7 @@
         </is>
       </c>
       <c r="E185" s="6" t="n">
-        <v>0.21</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="186">
@@ -8149,7 +8157,7 @@
         </is>
       </c>
       <c r="E186" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="187">
@@ -8190,7 +8198,7 @@
         </is>
       </c>
       <c r="E187" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
@@ -8231,7 +8239,7 @@
         </is>
       </c>
       <c r="E188" s="6" t="n">
-        <v>0.35</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="189">
@@ -8258,7 +8266,7 @@
         </is>
       </c>
       <c r="E189" s="6" t="n">
-        <v>0.22</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="190">
@@ -8285,7 +8293,7 @@
         </is>
       </c>
       <c r="E190" s="6" t="n">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="191">
@@ -8401,7 +8409,7 @@
         </is>
       </c>
       <c r="E193" s="6" t="n">
-        <v>0.4</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="194">
@@ -8473,7 +8481,7 @@
         </is>
       </c>
       <c r="E195" s="6" t="n">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
     </row>
     <row r="196">
@@ -8540,7 +8548,7 @@
         </is>
       </c>
       <c r="E197" s="6" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="198">
@@ -8573,7 +8581,7 @@
         </is>
       </c>
       <c r="E198" s="6" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="199">
@@ -8606,7 +8614,7 @@
         </is>
       </c>
       <c r="E199" s="6" t="n">
-        <v>0.39</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="200">
@@ -8639,7 +8647,7 @@
         </is>
       </c>
       <c r="E200" s="6" t="n">
-        <v>0.14</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="201">
@@ -8672,7 +8680,7 @@
         </is>
       </c>
       <c r="E201" s="6" t="n">
-        <v>0.4</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="202">
@@ -8727,7 +8735,7 @@
         </is>
       </c>
       <c r="E202" s="6" t="n">
-        <v>0.32</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="203">
@@ -8826,7 +8834,7 @@
         </is>
       </c>
       <c r="E204" s="6" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="205">
@@ -9059,7 +9067,7 @@
         </is>
       </c>
       <c r="E210" s="6" t="n">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="211">
@@ -9154,7 +9162,7 @@
         </is>
       </c>
       <c r="E212" s="6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="213">
@@ -9237,13 +9245,13 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="D214" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D214" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E214" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -9359,7 +9367,7 @@
         </is>
       </c>
       <c r="E217" s="6" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="218">
@@ -9438,7 +9446,7 @@
         </is>
       </c>
       <c r="E219" s="6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
@@ -9465,7 +9473,7 @@
         </is>
       </c>
       <c r="E220" s="6" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="221">
@@ -9527,7 +9535,7 @@
         </is>
       </c>
       <c r="E222" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
@@ -9622,7 +9630,7 @@
         </is>
       </c>
       <c r="E225" s="6" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="226">
@@ -9656,7 +9664,7 @@
         </is>
       </c>
       <c r="E226" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="227">
@@ -9695,7 +9703,7 @@
         </is>
       </c>
       <c r="E227" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="228">
@@ -9775,7 +9783,7 @@
         </is>
       </c>
       <c r="E229" s="6" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="230">
@@ -9856,7 +9864,7 @@
         </is>
       </c>
       <c r="E231" s="6" t="n">
-        <v>0.33</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="232">
@@ -9894,13 +9902,13 @@
           <t xml:space="preserve"> [2 .. (n - 1)],</t>
         </is>
       </c>
-      <c r="D232" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D232" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E232" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -9938,13 +9946,13 @@
           <t xml:space="preserve"> (n - 1)],</t>
         </is>
       </c>
-      <c r="D233" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D233" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E233" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -9981,7 +9989,7 @@
         </is>
       </c>
       <c r="E234" s="6" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
@@ -10026,7 +10034,7 @@
         </is>
       </c>
       <c r="E235" s="6" t="n">
-        <v>0.25</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="236">
@@ -10257,7 +10265,7 @@
         </is>
       </c>
       <c r="E240" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="241">
@@ -10335,7 +10343,7 @@
         </is>
       </c>
       <c r="E242" s="6" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="243">
@@ -10362,7 +10370,7 @@
         </is>
       </c>
       <c r="E243" s="6" t="n">
-        <v>0.75</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="244">
@@ -10863,7 +10871,7 @@
         </is>
       </c>
       <c r="E253" s="6" t="n">
-        <v>0.25</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="254">
@@ -10897,7 +10905,7 @@
         </is>
       </c>
       <c r="E254" s="6" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="255">
@@ -10931,7 +10939,7 @@
         </is>
       </c>
       <c r="E255" s="6" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="256">
@@ -10965,7 +10973,7 @@
         </is>
       </c>
       <c r="E256" s="6" t="n">
-        <v>0.4</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="257">
@@ -11071,7 +11079,7 @@
         </is>
       </c>
       <c r="E259" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="260">
@@ -11107,7 +11115,7 @@
         </is>
       </c>
       <c r="E260" s="6" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="261">
@@ -11143,7 +11151,7 @@
         </is>
       </c>
       <c r="E261" s="6" t="n">
-        <v>0.44</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="262">
@@ -11180,7 +11188,7 @@
         </is>
       </c>
       <c r="E262" s="6" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="263">
@@ -11288,7 +11296,7 @@
         </is>
       </c>
       <c r="E265" s="6" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="266">
@@ -11337,7 +11345,7 @@
         </is>
       </c>
       <c r="E266" s="6" t="n">
-        <v>0.43</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="267">
@@ -11431,7 +11439,7 @@
         </is>
       </c>
       <c r="E268" s="6" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="269">
@@ -11457,7 +11465,7 @@
         </is>
       </c>
       <c r="E269" s="6" t="n">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="270">
@@ -11487,7 +11495,7 @@
         </is>
       </c>
       <c r="E270" s="6" t="n">
-        <v>0.27</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="271">
@@ -11518,7 +11526,7 @@
         </is>
       </c>
       <c r="E271" s="6" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="272">
@@ -11556,7 +11564,7 @@
         </is>
       </c>
       <c r="E272" s="6" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="273">
@@ -11598,7 +11606,7 @@
         </is>
       </c>
       <c r="E273" s="6" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="274">
@@ -11680,7 +11688,7 @@
         </is>
       </c>
       <c r="E275" s="6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="276">
@@ -11722,7 +11730,7 @@
         </is>
       </c>
       <c r="E276" s="6" t="n">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="277">
@@ -11757,7 +11765,7 @@
         </is>
       </c>
       <c r="E277" s="6" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="278">
@@ -11796,7 +11804,7 @@
         </is>
       </c>
       <c r="E278" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
@@ -11909,7 +11917,7 @@
         </is>
       </c>
       <c r="E281" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="282">
@@ -11947,7 +11955,7 @@
         </is>
       </c>
       <c r="E282" s="6" t="n">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="283">
@@ -11984,7 +11992,7 @@
         </is>
       </c>
       <c r="E283" s="6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="284">
@@ -12021,7 +12029,7 @@
         </is>
       </c>
       <c r="E284" s="6" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="285">
@@ -12058,7 +12066,7 @@
         </is>
       </c>
       <c r="E285" s="6" t="n">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="286">
@@ -12095,7 +12103,7 @@
         </is>
       </c>
       <c r="E286" s="6" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="287">
@@ -12163,13 +12171,13 @@
           <t xml:space="preserve"> 0</t>
         </is>
       </c>
-      <c r="D288" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D288" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E288" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -12207,7 +12215,7 @@
         </is>
       </c>
       <c r="E289" s="6" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="290">
@@ -12247,7 +12255,7 @@
         </is>
       </c>
       <c r="E290" s="6" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="291">
@@ -12317,7 +12325,7 @@
         </is>
       </c>
       <c r="E292" s="6" t="n">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="293">
@@ -12345,7 +12353,7 @@
         </is>
       </c>
       <c r="E293" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="294">
@@ -12410,13 +12418,13 @@
           <t xml:space="preserve"> (b `mod` 10)</t>
         </is>
       </c>
-      <c r="D295" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D295" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E295" s="6" t="n">
-        <v>0.96</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -12452,7 +12460,7 @@
         </is>
       </c>
       <c r="E296" s="6" t="n">
-        <v>0.12</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="297">
@@ -12488,7 +12496,7 @@
         </is>
       </c>
       <c r="E297" s="6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="298">
@@ -12534,7 +12542,7 @@
         </is>
       </c>
       <c r="E298" s="6" t="n">
-        <v>0.11</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="299">
@@ -12657,13 +12665,13 @@
           <t xml:space="preserve"> c</t>
         </is>
       </c>
-      <c r="D301" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D301" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E301" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -12705,7 +12713,7 @@
         </is>
       </c>
       <c r="E302" s="6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="303">
@@ -12821,7 +12829,7 @@
         </is>
       </c>
       <c r="E305" s="6" t="n">
-        <v>0.46</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="306">
@@ -12943,7 +12951,7 @@
         </is>
       </c>
       <c r="E308" s="6" t="n">
-        <v>0.37</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="309">
@@ -12982,7 +12990,7 @@
         </is>
       </c>
       <c r="E309" s="6" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="310">
@@ -13054,7 +13062,7 @@
         </is>
       </c>
       <c r="E311" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
@@ -13089,7 +13097,7 @@
         </is>
       </c>
       <c r="E312" s="6" t="n">
-        <v>0.15</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="313">
@@ -13121,7 +13129,7 @@
         </is>
       </c>
       <c r="E313" s="6" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="314">
@@ -13189,7 +13197,7 @@
         </is>
       </c>
       <c r="E315" s="6" t="n">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="316">
@@ -13227,7 +13235,7 @@
         </is>
       </c>
       <c r="E316" s="6" t="n">
-        <v>0.3</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="317">
@@ -13260,7 +13268,7 @@
         </is>
       </c>
       <c r="E317" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
@@ -13293,7 +13301,7 @@
         </is>
       </c>
       <c r="E318" s="6" t="n">
-        <v>0.19</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="319">
@@ -13398,7 +13406,7 @@
         </is>
       </c>
       <c r="E321" s="6" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="322">
@@ -13424,7 +13432,7 @@
         </is>
       </c>
       <c r="E322" s="6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="323">
@@ -13453,7 +13461,7 @@
         </is>
       </c>
       <c r="E323" s="6" t="n">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="324">
@@ -13481,7 +13489,7 @@
         </is>
       </c>
       <c r="E324" s="6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="325">
@@ -13677,13 +13685,13 @@
           <t xml:space="preserve"> toUpper x</t>
         </is>
       </c>
-      <c r="D328" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D328" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E328" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -13828,7 +13836,7 @@
         </is>
       </c>
       <c r="E331" s="6" t="n">
-        <v>0.33</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="332">
@@ -13981,7 +13989,7 @@
         </is>
       </c>
       <c r="E335" s="6" t="n">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="336">
@@ -14022,7 +14030,7 @@
         </is>
       </c>
       <c r="E336" s="6" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="337">
@@ -14075,7 +14083,7 @@
         </is>
       </c>
       <c r="E337" s="6" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="338">
@@ -14121,7 +14129,7 @@
         </is>
       </c>
       <c r="E338" s="6" t="n">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="339">
@@ -14241,7 +14249,7 @@
         </is>
       </c>
       <c r="E340" s="6" t="n">
-        <v>0.35</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="341">
@@ -14287,7 +14295,7 @@
         </is>
       </c>
       <c r="E341" s="6" t="n">
-        <v>0.51</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="342">
@@ -14328,7 +14336,7 @@
         </is>
       </c>
       <c r="E342" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="343">
@@ -14369,7 +14377,7 @@
         </is>
       </c>
       <c r="E343" s="6" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="344">
@@ -14409,7 +14417,7 @@
         </is>
       </c>
       <c r="E344" s="6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="345">
@@ -14448,7 +14456,7 @@
         </is>
       </c>
       <c r="E345" s="6" t="n">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="346">
@@ -14565,7 +14573,7 @@
         </is>
       </c>
       <c r="E348" s="6" t="n">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="349">
@@ -14602,7 +14610,7 @@
         </is>
       </c>
       <c r="E349" s="6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="350">
@@ -14639,7 +14647,7 @@
         </is>
       </c>
       <c r="E350" s="6" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="351">
@@ -14731,7 +14739,7 @@
         </is>
       </c>
       <c r="E352" s="6" t="n">
-        <v>0.31</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="353">
@@ -14783,7 +14791,7 @@
         </is>
       </c>
       <c r="E353" s="6" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="354">
@@ -14939,7 +14947,7 @@
         </is>
       </c>
       <c r="E356" s="6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="357">
@@ -14974,7 +14982,7 @@
         </is>
       </c>
       <c r="E357" s="6" t="n">
-        <v>0.25</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="358">
@@ -15004,7 +15012,7 @@
         </is>
       </c>
       <c r="E358" s="6" t="n">
-        <v>0.25</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="359">
@@ -15034,7 +15042,7 @@
         </is>
       </c>
       <c r="E359" s="6" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="360">
@@ -15064,7 +15072,7 @@
         </is>
       </c>
       <c r="E360" s="6" t="n">
-        <v>0.21</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="361">
@@ -15128,7 +15136,7 @@
         </is>
       </c>
       <c r="E362" s="6" t="n">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="363">
@@ -15222,7 +15230,7 @@
         </is>
       </c>
       <c r="E365" s="6" t="n">
-        <v>0.19</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="366">
@@ -15345,13 +15353,13 @@
           <t xml:space="preserve"> "B-"</t>
         </is>
       </c>
-      <c r="D368" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D368" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E368" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -15405,7 +15413,7 @@
         </is>
       </c>
       <c r="E369" s="6" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="370">
@@ -15510,7 +15518,7 @@
         </is>
       </c>
       <c r="E371" s="6" t="n">
-        <v>0.75</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="372">
@@ -15561,13 +15569,13 @@
           <t xml:space="preserve"> "B"</t>
         </is>
       </c>
-      <c r="D372" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D372" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E372" s="6" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -15606,7 +15614,7 @@
         </is>
       </c>
       <c r="E373" s="6" t="n">
-        <v>0.22</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="374">
@@ -15647,7 +15655,7 @@
         </is>
       </c>
       <c r="E374" s="6" t="n">
-        <v>0.48</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="375">
@@ -15687,7 +15695,7 @@
         </is>
       </c>
       <c r="E375" s="6" t="n">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="376">
@@ -15731,7 +15739,7 @@
         </is>
       </c>
       <c r="E376" s="6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="377">
@@ -15770,13 +15778,13 @@
           <t xml:space="preserve"> False</t>
         </is>
       </c>
-      <c r="D377" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D377" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E377" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -15811,13 +15819,13 @@
           <t xml:space="preserve"> 3</t>
         </is>
       </c>
-      <c r="D378" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D378" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E378" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -15903,7 +15911,7 @@
         </is>
       </c>
       <c r="E380" s="6" t="n">
-        <v>0.38</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="381">
@@ -15945,7 +15953,7 @@
         </is>
       </c>
       <c r="E381" s="6" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
@@ -16047,7 +16055,7 @@
         </is>
       </c>
       <c r="E384" s="6" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="385">
@@ -16076,7 +16084,7 @@
         </is>
       </c>
       <c r="E385" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
@@ -16134,7 +16142,7 @@
         </is>
       </c>
       <c r="E387" s="6" t="n">
-        <v>0.21</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="388">
@@ -16215,7 +16223,7 @@
         </is>
       </c>
       <c r="E389" s="6" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="390">
@@ -16293,7 +16301,7 @@
         </is>
       </c>
       <c r="E391" s="6" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="392">
@@ -16326,7 +16334,7 @@
         </is>
       </c>
       <c r="E392" s="6" t="n">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="393">
@@ -16390,7 +16398,7 @@
         </is>
       </c>
       <c r="E394" s="6" t="n">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="395">
@@ -16453,7 +16461,7 @@
         </is>
       </c>
       <c r="E396" s="6" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="397">
@@ -16496,7 +16504,7 @@
         </is>
       </c>
       <c r="E397" s="6" t="n">
-        <v>0.29</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="398">
@@ -16579,7 +16587,7 @@
         </is>
       </c>
       <c r="E399" s="6" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="400">
@@ -16632,13 +16640,13 @@
           <t xml:space="preserve"> ord 'a'))</t>
         </is>
       </c>
-      <c r="D401" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D401" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E401" s="6" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">
@@ -16700,7 +16708,7 @@
         </is>
       </c>
       <c r="E403" s="6" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="404">
@@ -16789,7 +16797,7 @@
         </is>
       </c>
       <c r="E406" s="6" t="n">
-        <v>0.11</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="407">
@@ -16851,7 +16859,7 @@
         </is>
       </c>
       <c r="E408" s="6" t="n">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
     </row>
     <row r="409">
@@ -16907,7 +16915,7 @@
         </is>
       </c>
       <c r="E410" s="6" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="411">
@@ -16952,7 +16960,7 @@
         </is>
       </c>
       <c r="E411" s="6" t="n">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="412">
@@ -17039,7 +17047,7 @@
         </is>
       </c>
       <c r="E413" s="6" t="n">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="414">
@@ -17082,7 +17090,7 @@
         </is>
       </c>
       <c r="E414" s="6" t="n">
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="415">
@@ -17171,7 +17179,7 @@
         </is>
       </c>
       <c r="E416" s="6" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="417">
@@ -17213,7 +17221,7 @@
         </is>
       </c>
       <c r="E417" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
@@ -17456,7 +17464,7 @@
         </is>
       </c>
       <c r="E424" s="6" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="425">
@@ -17487,7 +17495,7 @@
         </is>
       </c>
       <c r="E425" s="6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="426">
@@ -17708,7 +17716,7 @@
         </is>
       </c>
       <c r="E432" s="6" t="n">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="433">
@@ -17741,7 +17749,7 @@
         </is>
       </c>
       <c r="E433" s="6" t="n">
-        <v>0.25</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="434">
@@ -17849,7 +17857,7 @@
         </is>
       </c>
       <c r="E436" s="6" t="n">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="437">
@@ -17920,7 +17928,7 @@
         </is>
       </c>
       <c r="E438" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="439">
@@ -17999,7 +18007,7 @@
         </is>
       </c>
       <c r="E440" s="6" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
     </row>
     <row r="441">
@@ -18033,7 +18041,7 @@
         </is>
       </c>
       <c r="E441" s="6" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="442">
@@ -18104,7 +18112,7 @@
         </is>
       </c>
       <c r="E443" s="6" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="444">
@@ -18154,7 +18162,7 @@
         </is>
       </c>
       <c r="E444" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445">
@@ -18199,7 +18207,7 @@
         </is>
       </c>
       <c r="E445" s="6" t="n">
-        <v>0.22</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="446">
@@ -18242,13 +18250,13 @@
           <t xml:space="preserve"> 0</t>
         </is>
       </c>
-      <c r="D446" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D446" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E446" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447">
@@ -18374,7 +18382,7 @@
         </is>
       </c>
       <c r="E449" s="6" t="n">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="450">
@@ -18445,7 +18453,7 @@
         </is>
       </c>
       <c r="E451" s="6" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="452">
@@ -18485,7 +18493,7 @@
         </is>
       </c>
       <c r="E452" s="6" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="453">
@@ -18602,7 +18610,7 @@
         </is>
       </c>
       <c r="E455" s="6" t="n">
-        <v>0.26</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="456">
@@ -18645,7 +18653,7 @@
         </is>
       </c>
       <c r="E456" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="457">
@@ -18687,7 +18695,7 @@
         </is>
       </c>
       <c r="E457" s="6" t="n">
-        <v>0.42</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="458">
@@ -18731,7 +18739,7 @@
         </is>
       </c>
       <c r="E458" s="6" t="n">
-        <v>0.25</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="459">
@@ -18837,13 +18845,13 @@
           <t xml:space="preserve"> 2</t>
         </is>
       </c>
-      <c r="D461" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D461" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E461" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462">
@@ -18878,13 +18886,13 @@
           <t xml:space="preserve"> 1</t>
         </is>
       </c>
-      <c r="D462" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D462" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E462" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463">
@@ -19095,7 +19103,7 @@
         </is>
       </c>
       <c r="E467" s="6" t="n">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="468">
@@ -19177,7 +19185,7 @@
         </is>
       </c>
       <c r="E469" s="6" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="470">
@@ -19228,7 +19236,7 @@
         </is>
       </c>
       <c r="E470" s="6" t="n">
-        <v>0.53</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="471">
@@ -19338,7 +19346,7 @@
         </is>
       </c>
       <c r="E473" s="6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="474">
@@ -19377,13 +19385,13 @@
           <t xml:space="preserve"> False</t>
         </is>
       </c>
-      <c r="D474" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D474" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E474" s="6" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475">
@@ -19424,7 +19432,7 @@
         </is>
       </c>
       <c r="E475" s="6" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="476">
@@ -19464,7 +19472,7 @@
         </is>
       </c>
       <c r="E476" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="477">
@@ -19507,7 +19515,7 @@
         </is>
       </c>
       <c r="E477" s="6" t="n">
-        <v>0.3</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="478">
@@ -19542,7 +19550,7 @@
         </is>
       </c>
       <c r="E478" s="6" t="n">
-        <v>0.57</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="479">
@@ -19675,7 +19683,7 @@
         </is>
       </c>
       <c r="E482" s="6" t="n">
-        <v>0.15</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="483">
@@ -19709,7 +19717,7 @@
         </is>
       </c>
       <c r="E483" s="6" t="n">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="484">
@@ -19742,7 +19750,7 @@
         </is>
       </c>
       <c r="E484" s="6" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="485">
@@ -19775,7 +19783,7 @@
         </is>
       </c>
       <c r="E485" s="6" t="n">
-        <v>0.23</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="486">
@@ -19808,7 +19816,7 @@
         </is>
       </c>
       <c r="E486" s="6" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="487">
@@ -19841,7 +19849,7 @@
         </is>
       </c>
       <c r="E487" s="6" t="n">
-        <v>0.52</v>
+        <v>0.53</v>
       </c>
     </row>
     <row r="488">
@@ -19905,7 +19913,7 @@
         </is>
       </c>
       <c r="E489" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -19936,7 +19944,7 @@
         </is>
       </c>
       <c r="E490" s="6" t="n">
-        <v>0.2</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="491">
@@ -20013,7 +20021,7 @@
         </is>
       </c>
       <c r="E492" s="6" t="n">
-        <v>0.26</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="493">
@@ -20066,7 +20074,7 @@
         </is>
       </c>
       <c r="E493" s="6" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="494">
@@ -20164,7 +20172,7 @@
         </is>
       </c>
       <c r="E495" s="6" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="496">
@@ -20248,7 +20256,7 @@
         </is>
       </c>
       <c r="E497" s="6" t="n">
-        <v>0.14</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="498">
@@ -20290,7 +20298,7 @@
         </is>
       </c>
       <c r="E498" s="6" t="n">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="499">
@@ -20329,7 +20337,7 @@
         </is>
       </c>
       <c r="E499" s="6" t="n">
-        <v>0.29</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="500">
@@ -20479,7 +20487,7 @@
         </is>
       </c>
       <c r="E503" s="6" t="n">
-        <v>0.48</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="504">
@@ -20555,7 +20563,7 @@
         </is>
       </c>
       <c r="E505" s="6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="506">
@@ -20601,7 +20609,7 @@
         </is>
       </c>
       <c r="E506" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="507">
@@ -20648,7 +20656,7 @@
         </is>
       </c>
       <c r="E507" s="6" t="n">
-        <v>0.24</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="508">
@@ -20774,7 +20782,7 @@
         </is>
       </c>
       <c r="E510" s="6" t="n">
-        <v>0.45</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="511">
@@ -20806,7 +20814,7 @@
         </is>
       </c>
       <c r="E511" s="6" t="n">
-        <v>0.17</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="512">
@@ -20839,7 +20847,7 @@
         </is>
       </c>
       <c r="E512" s="6" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="513">
@@ -20871,7 +20879,7 @@
         </is>
       </c>
       <c r="E513" s="6" t="n">
-        <v>0.28</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="514">
@@ -20917,7 +20925,7 @@
         </is>
       </c>
       <c r="E514" s="6" t="n">
-        <v>0.19</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="515">
@@ -21042,7 +21050,7 @@
         </is>
       </c>
       <c r="E517" s="6" t="n">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="518">
@@ -21191,7 +21199,7 @@
         </is>
       </c>
       <c r="E521" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -21228,7 +21236,7 @@
         </is>
       </c>
       <c r="E522" s="6" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="523">
@@ -21265,7 +21273,7 @@
         </is>
       </c>
       <c r="E523" s="6" t="n">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="524">
@@ -21302,7 +21310,7 @@
         </is>
       </c>
       <c r="E524" s="6" t="n">
-        <v>0.18</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="525">
@@ -21336,7 +21344,7 @@
         </is>
       </c>
       <c r="E525" s="6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -21373,7 +21381,7 @@
         </is>
       </c>
       <c r="E526" s="6" t="n">
-        <v>0.38</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="527">
@@ -21445,7 +21453,7 @@
         </is>
       </c>
       <c r="E528" s="6" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="529">
@@ -21494,7 +21502,7 @@
         </is>
       </c>
       <c r="E529" s="6" t="n">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="530">
@@ -21586,13 +21594,13 @@
           <t xml:space="preserve"> odd x]</t>
         </is>
       </c>
-      <c r="D531" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D531" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E531" s="6" t="n">
-        <v>0.92</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532">
@@ -21641,7 +21649,7 @@
         </is>
       </c>
       <c r="E532" s="6" t="n">
-        <v>0.4</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="533">
@@ -21691,7 +21699,7 @@
         </is>
       </c>
       <c r="E533" s="6" t="n">
-        <v>0.62</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="534">
@@ -21720,7 +21728,7 @@
         </is>
       </c>
       <c r="E534" s="6" t="n">
-        <v>0.15</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="535">
@@ -21813,7 +21821,7 @@
         </is>
       </c>
       <c r="E537" s="6" t="n">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="538">
@@ -21879,7 +21887,7 @@
         </is>
       </c>
       <c r="E539" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="540">
@@ -21941,13 +21949,13 @@
           <t xml:space="preserve"> fromIntegral (length numbers)</t>
         </is>
       </c>
-      <c r="D541" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D541" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E541" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542">
@@ -21982,7 +21990,7 @@
         </is>
       </c>
       <c r="E542" s="6" t="n">
-        <v>0.29</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="543">
@@ -22054,7 +22062,7 @@
         </is>
       </c>
       <c r="E544" s="6" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="545">
@@ -22257,7 +22265,7 @@
         </is>
       </c>
       <c r="E549" s="6" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="550">
@@ -22333,7 +22341,7 @@
         </is>
       </c>
       <c r="E551" s="6" t="n">
-        <v>0.11</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="552">
@@ -22364,7 +22372,7 @@
         </is>
       </c>
       <c r="E552" s="6" t="n">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="553">
@@ -22432,7 +22440,7 @@
         </is>
       </c>
       <c r="E554" s="6" t="n">
-        <v>0.47</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="555">
@@ -22505,7 +22513,7 @@
         </is>
       </c>
       <c r="E556" s="6" t="n">
-        <v>0.34</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="557">
@@ -22538,7 +22546,7 @@
         </is>
       </c>
       <c r="E557" s="6" t="n">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="558">
@@ -22570,7 +22578,7 @@
         </is>
       </c>
       <c r="E558" s="6" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
     </row>
     <row r="559">
@@ -22603,7 +22611,7 @@
         </is>
       </c>
       <c r="E559" s="6" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="560">
@@ -22636,7 +22644,7 @@
         </is>
       </c>
       <c r="E560" s="6" t="n">
-        <v>0.28</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="561">
@@ -22674,7 +22682,7 @@
         </is>
       </c>
       <c r="E561" s="6" t="n">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="562">
@@ -22709,7 +22717,7 @@
         </is>
       </c>
       <c r="E562" s="6" t="n">
-        <v>0.28</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="563">
@@ -22743,7 +22751,7 @@
         </is>
       </c>
       <c r="E563" s="6" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -22813,7 +22821,7 @@
         </is>
       </c>
       <c r="E565" s="6" t="n">
-        <v>0.22</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="566">
@@ -22890,7 +22898,7 @@
         </is>
       </c>
       <c r="E567" s="6" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568">
@@ -22933,7 +22941,7 @@
         </is>
       </c>
       <c r="E568" s="6" t="n">
-        <v>0.17</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="569">
@@ -22975,7 +22983,7 @@
         </is>
       </c>
       <c r="E569" s="6" t="n">
-        <v>0.24</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="570">
@@ -23053,7 +23061,7 @@
         </is>
       </c>
       <c r="E571" s="6" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="572">
@@ -23117,7 +23125,7 @@
         </is>
       </c>
       <c r="E573" s="6" t="n">
-        <v>0.39</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="574">
@@ -23177,7 +23185,7 @@
         </is>
       </c>
       <c r="E575" s="6" t="n">
-        <v>0.31</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="576">
@@ -23208,7 +23216,7 @@
         </is>
       </c>
       <c r="E576" s="6" t="n">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="577">
@@ -23281,7 +23289,7 @@
         </is>
       </c>
       <c r="E578" s="6" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="579">
@@ -23319,7 +23327,7 @@
         </is>
       </c>
       <c r="E579" s="6" t="n">
-        <v>0.63</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="580">
@@ -23364,7 +23372,7 @@
         </is>
       </c>
       <c r="E580" s="6" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -23407,7 +23415,7 @@
         </is>
       </c>
       <c r="E581" s="6" t="n">
-        <v>0.7</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="582">
@@ -23443,13 +23451,13 @@
           <t xml:space="preserve"> z</t>
         </is>
       </c>
-      <c r="D582" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D582" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E582" s="6" t="n">
-        <v>0.67</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583">
@@ -23492,7 +23500,7 @@
         </is>
       </c>
       <c r="E583" s="6" t="n">
-        <v>0.54</v>
+        <v>0.5600000000000001</v>
       </c>
     </row>
     <row r="584">
@@ -23534,7 +23542,7 @@
         </is>
       </c>
       <c r="E584" s="6" t="n">
-        <v>0.2</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="585">
@@ -23576,7 +23584,7 @@
         </is>
       </c>
       <c r="E585" s="6" t="n">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
     </row>
     <row r="586">
@@ -23618,7 +23626,7 @@
         </is>
       </c>
       <c r="E586" s="6" t="n">
-        <v>0.32</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="587">
@@ -23734,13 +23742,13 @@
           <t xml:space="preserve"> length $ filter odd lst1</t>
         </is>
       </c>
-      <c r="D589" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D589" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E589" s="6" t="n">
-        <v>0.98</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590">
@@ -23776,13 +23784,13 @@
           <t xml:space="preserve"> lst1</t>
         </is>
       </c>
-      <c r="D590" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D590" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E590" s="6" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591">
@@ -23823,7 +23831,7 @@
         </is>
       </c>
       <c r="E591" s="6" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="592">
@@ -23859,13 +23867,13 @@
           <t xml:space="preserve"> filter odd lst1</t>
         </is>
       </c>
-      <c r="D592" s="5" t="inlineStr">
-        <is>
-          <t>False</t>
+      <c r="D592" s="7" t="inlineStr">
+        <is>
+          <t>True</t>
         </is>
       </c>
       <c r="E592" s="6" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593">
@@ -24060,7 +24068,7 @@
         </is>
       </c>
       <c r="E597" s="6" t="n">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="598">
@@ -24172,7 +24180,7 @@
         </is>
       </c>
       <c r="E599" s="6" t="n">
-        <v>0.8</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="600">
@@ -24228,7 +24236,7 @@
         </is>
       </c>
       <c r="E600" s="6" t="n">
-        <v>0.24</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="601">
@@ -24262,7 +24270,7 @@
         </is>
       </c>
       <c r="E601" s="6" t="n">
-        <v>0.14</v>
+        <v>0.07000000000000001</v>
       </c>
     </row>
     <row r="602">
@@ -24293,7 +24301,7 @@
         </is>
       </c>
       <c r="E602" s="6" t="n">
-        <v>0.17</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="603">
@@ -24358,7 +24366,7 @@
         </is>
       </c>
       <c r="E604" s="6" t="n">
-        <v>0.06</v>
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>

--- a/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
+++ b/models/evaluation/output/unixcoder_base-test-humaneval.xlsx
@@ -463,7 +463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q604"/>
+  <dimension ref="A1:R604"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -475,7 +475,6 @@
     <col width="125" customWidth="1" min="1" max="1"/>
     <col width="50" customWidth="1" min="2" max="2"/>
     <col width="50" customWidth="1" min="3" max="3"/>
-    <col width="20" customWidth="1" min="7" max="7"/>
     <col width="20" customWidth="1" min="8" max="8"/>
     <col width="20" customWidth="1" min="9" max="9"/>
     <col width="20" customWidth="1" min="10" max="10"/>
@@ -484,7 +483,8 @@
     <col width="20" customWidth="1" min="13" max="13"/>
     <col width="20" customWidth="1" min="14" max="14"/>
     <col width="20" customWidth="1" min="15" max="15"/>
-    <col width="100" customWidth="1" min="17" max="17"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="100" customWidth="1" min="18" max="18"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,8 +513,13 @@
           <t>ES</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr"/>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>OL</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr"/>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>if/then/else
 all
@@ -523,21 +528,21 @@
 else</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>generators
 complete
 body</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>guards (= |)
 complete
 body</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>functions
 complete
@@ -546,7 +551,7 @@
 body</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>lists
 ++
@@ -556,7 +561,7 @@
 range</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>logical operators
 all
@@ -571,7 +576,7 @@
 not</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>arithmetic operators
 all
@@ -583,7 +588,7 @@
 mod</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>case expressions
 complete
@@ -591,7 +596,7 @@
 argument(s)</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>other
 variable name
@@ -599,8 +604,8 @@
 wrong value</t>
         </is>
       </c>
-      <c r="P1" s="2" t="inlineStr"/>
-      <c r="Q1" s="3" t="inlineStr">
+      <c r="Q1" s="3" t="inlineStr"/>
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>other comments</t>
         </is>
@@ -635,6 +640,11 @@
       <c r="E2" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F2" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -664,6 +674,11 @@
       </c>
       <c r="E3" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -706,6 +721,11 @@
       <c r="E4" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -747,6 +767,11 @@
       <c r="E5" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -788,6 +813,11 @@
       <c r="E6" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -829,6 +859,11 @@
       <c r="E7" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -862,6 +897,11 @@
       <c r="E8" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F8" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -895,6 +935,11 @@
       <c r="E9" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F9" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -928,6 +973,11 @@
       <c r="E10" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F10" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -954,6 +1004,11 @@
       </c>
       <c r="E11" s="6" t="n">
         <v>0.06</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -988,6 +1043,11 @@
       </c>
       <c r="E12" s="6" t="n">
         <v>0.32</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -1028,6 +1088,11 @@
       <c r="E13" s="6" t="n">
         <v>0.7</v>
       </c>
+      <c r="F13" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -1063,6 +1128,11 @@
       <c r="E14" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F14" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -1097,6 +1167,11 @@
       <c r="E15" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F15" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -1134,6 +1209,11 @@
       </c>
       <c r="E16" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1184,6 +1264,11 @@
       <c r="E17" s="6" t="n">
         <v>0.9</v>
       </c>
+      <c r="F17" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -1223,6 +1308,11 @@
       </c>
       <c r="E18" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1268,6 +1358,11 @@
       <c r="E19" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F19" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -1307,6 +1402,11 @@
       </c>
       <c r="E20" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1353,6 +1453,11 @@
       <c r="E21" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F21" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -1391,6 +1496,11 @@
       <c r="E22" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F22" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -1425,6 +1535,11 @@
       </c>
       <c r="E23" s="6" t="n">
         <v>0.35</v>
+      </c>
+      <c r="F23" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1461,6 +1576,11 @@
       </c>
       <c r="E24" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F24" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1498,6 +1618,11 @@
       </c>
       <c r="E25" s="6" t="n">
         <v>0.79</v>
+      </c>
+      <c r="F25" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1532,6 +1657,11 @@
       <c r="E26" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F26" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -1564,6 +1694,11 @@
       </c>
       <c r="E27" s="6" t="n">
         <v>0.07000000000000001</v>
+      </c>
+      <c r="F27" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="28">
@@ -1609,6 +1744,11 @@
       <c r="E28" s="6" t="n">
         <v>0.53</v>
       </c>
+      <c r="F28" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1653,6 +1793,11 @@
       <c r="E29" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F29" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1695,6 +1840,11 @@
       </c>
       <c r="E30" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="31">
@@ -1740,6 +1890,11 @@
       <c r="E31" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F31" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1780,6 +1935,11 @@
       <c r="E32" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F32" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1831,6 +1991,11 @@
       </c>
       <c r="E33" s="6" t="n">
         <v>0.84</v>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="34">
@@ -1888,6 +2053,11 @@
       <c r="E34" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F34" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1937,6 +2107,11 @@
       </c>
       <c r="E35" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="36">
@@ -1998,6 +2173,11 @@
       <c r="E36" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F36" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -2055,6 +2235,11 @@
       <c r="E37" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F37" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -2088,6 +2273,11 @@
       </c>
       <c r="E38" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="39">
@@ -2123,6 +2313,11 @@
       </c>
       <c r="E39" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="40">
@@ -2160,6 +2355,11 @@
       <c r="E40" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F40" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -2195,6 +2395,11 @@
       </c>
       <c r="E41" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="42">
@@ -2232,6 +2437,11 @@
       </c>
       <c r="E42" s="6" t="n">
         <v>0.14</v>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="43">
@@ -2273,6 +2483,11 @@
       <c r="E43" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F43" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -2313,6 +2528,11 @@
       <c r="E44" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F44" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -2345,6 +2565,11 @@
       <c r="E45" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F45" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -2372,6 +2597,11 @@
       <c r="E46" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F46" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -2398,6 +2628,11 @@
       </c>
       <c r="E47" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="48">
@@ -2448,6 +2683,11 @@
       <c r="E48" s="6" t="n">
         <v>0.58</v>
       </c>
+      <c r="F48" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -2496,6 +2736,11 @@
       <c r="E49" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F49" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -2543,6 +2788,11 @@
       <c r="E50" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F50" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -2585,6 +2835,11 @@
       </c>
       <c r="E51" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -2632,6 +2887,11 @@
       <c r="E52" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F52" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -2672,6 +2932,11 @@
       <c r="E53" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F53" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -2708,6 +2973,11 @@
       </c>
       <c r="E54" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="55">
@@ -2752,6 +3022,11 @@
       <c r="E55" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F55" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -2793,6 +3068,11 @@
       </c>
       <c r="E56" s="6" t="n">
         <v>0.05</v>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="57">
@@ -2837,6 +3117,11 @@
       </c>
       <c r="E57" s="6" t="n">
         <v>0.74</v>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="58">
@@ -2880,6 +3165,11 @@
       </c>
       <c r="E58" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F58" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="59">
@@ -2926,6 +3216,11 @@
       </c>
       <c r="E59" s="6" t="n">
         <v>0.31</v>
+      </c>
+      <c r="F59" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="60">
@@ -2974,6 +3269,11 @@
       <c r="E60" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F60" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -3021,6 +3321,11 @@
       <c r="E61" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F61" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -3067,6 +3372,11 @@
       <c r="E62" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F62" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -3113,6 +3423,11 @@
       <c r="E63" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F63" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -3156,6 +3471,11 @@
       <c r="E64" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F64" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -3199,6 +3519,11 @@
       <c r="E65" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F65" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -3241,6 +3566,11 @@
       </c>
       <c r="E66" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F66" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="67">
@@ -3288,6 +3618,11 @@
       <c r="E67" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F67" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -3328,6 +3663,11 @@
       <c r="E68" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F68" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -3368,6 +3708,11 @@
       <c r="E69" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F69" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -3408,6 +3753,11 @@
       <c r="E70" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F70" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -3439,6 +3789,11 @@
       <c r="E71" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F71" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -3470,6 +3825,11 @@
       <c r="E72" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F72" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -3499,6 +3859,11 @@
       </c>
       <c r="E73" s="6" t="n">
         <v>0.45</v>
+      </c>
+      <c r="F73" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="74">
@@ -3530,6 +3895,11 @@
       </c>
       <c r="E74" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F74" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="75">
@@ -3594,6 +3964,11 @@
       <c r="E75" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F75" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -3656,6 +4031,11 @@
       <c r="E76" s="6" t="n">
         <v>0.87</v>
       </c>
+      <c r="F76" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -3709,6 +4089,11 @@
       </c>
       <c r="E77" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F77" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="78">
@@ -3770,6 +4155,11 @@
       </c>
       <c r="E78" s="6" t="n">
         <v>0.42</v>
+      </c>
+      <c r="F78" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="79">
@@ -3833,6 +4223,11 @@
       <c r="E79" s="6" t="n">
         <v>0.62</v>
       </c>
+      <c r="F79" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -3867,6 +4262,11 @@
       <c r="E80" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F80" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -3901,6 +4301,11 @@
       <c r="E81" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F81" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -3934,6 +4339,11 @@
       </c>
       <c r="E82" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F82" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="83">
@@ -3974,6 +4384,11 @@
       <c r="E83" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F83" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -4008,6 +4423,11 @@
       <c r="E84" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F84" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -4045,6 +4465,11 @@
       <c r="E85" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F85" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -4077,6 +4502,11 @@
       <c r="E86" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F86" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -4108,6 +4538,11 @@
       </c>
       <c r="E87" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F87" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="88">
@@ -4147,6 +4582,11 @@
       </c>
       <c r="E88" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F88" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="89">
@@ -4187,6 +4627,11 @@
       </c>
       <c r="E89" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F89" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="90">
@@ -4232,6 +4677,11 @@
       </c>
       <c r="E90" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F90" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="91">
@@ -4281,6 +4731,11 @@
       <c r="E91" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F91" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -4325,6 +4780,11 @@
       <c r="E92" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F92" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -4358,6 +4818,11 @@
       <c r="E93" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F93" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -4391,6 +4856,11 @@
       <c r="E94" s="6" t="n">
         <v>0.02</v>
       </c>
+      <c r="F94" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -4424,6 +4894,11 @@
       <c r="E95" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F95" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -4459,6 +4934,11 @@
       <c r="E96" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F96" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -4493,6 +4973,11 @@
       </c>
       <c r="E97" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F97" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="98">
@@ -4525,6 +5010,11 @@
       </c>
       <c r="E98" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F98" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="99">
@@ -4571,6 +5061,11 @@
       <c r="E99" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F99" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -4620,6 +5115,11 @@
       <c r="E100" s="6" t="n">
         <v>0.01</v>
       </c>
+      <c r="F100" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="4" t="inlineStr">
@@ -4669,6 +5169,11 @@
       <c r="E101" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F101" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="4" t="inlineStr">
@@ -4718,6 +5223,11 @@
       <c r="E102" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F102" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="4" t="inlineStr">
@@ -4757,6 +5267,11 @@
       <c r="E103" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F103" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="4" t="inlineStr">
@@ -4786,6 +5301,11 @@
       <c r="E104" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F104" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="4" t="inlineStr">
@@ -4814,6 +5334,11 @@
       </c>
       <c r="E105" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F105" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="106">
@@ -4845,6 +5370,11 @@
       </c>
       <c r="E106" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F106" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="107">
@@ -4886,6 +5416,11 @@
       </c>
       <c r="E107" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F107" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="108">
@@ -4936,6 +5471,11 @@
       <c r="E108" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F108" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="4" t="inlineStr">
@@ -4976,6 +5516,11 @@
       </c>
       <c r="E109" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F109" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="110">
@@ -5023,6 +5568,11 @@
       </c>
       <c r="E110" s="6" t="n">
         <v>0.98</v>
+      </c>
+      <c r="F110" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="111">
@@ -5074,6 +5624,11 @@
       <c r="E111" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F111" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="4" t="inlineStr">
@@ -5113,6 +5668,11 @@
       </c>
       <c r="E112" s="6" t="n">
         <v>0.39</v>
+      </c>
+      <c r="F112" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="113">
@@ -5159,6 +5719,11 @@
       <c r="E113" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F113" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="4" t="inlineStr">
@@ -5196,6 +5761,11 @@
       <c r="E114" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F114" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="4" t="inlineStr">
@@ -5235,6 +5805,11 @@
       </c>
       <c r="E115" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F115" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="116">
@@ -5283,6 +5858,11 @@
       <c r="E116" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F116" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="4" t="inlineStr">
@@ -5319,6 +5899,11 @@
       <c r="E117" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F117" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="4" t="inlineStr">
@@ -5355,6 +5940,11 @@
       <c r="E118" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F118" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="4" t="inlineStr">
@@ -5390,6 +5980,11 @@
       </c>
       <c r="E119" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F119" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="120">
@@ -5431,6 +6026,11 @@
       <c r="E120" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F120" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="4" t="inlineStr">
@@ -5471,6 +6071,11 @@
       <c r="E121" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F121" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="4" t="inlineStr">
@@ -5507,6 +6112,11 @@
       </c>
       <c r="E122" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F122" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="123">
@@ -5542,6 +6152,11 @@
       <c r="E123" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F123" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="4" t="inlineStr">
@@ -5578,6 +6193,11 @@
       <c r="E124" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F124" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="4" t="inlineStr">
@@ -5613,6 +6233,11 @@
       </c>
       <c r="E125" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F125" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="126">
@@ -5655,6 +6280,11 @@
       <c r="E126" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F126" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="4" t="inlineStr">
@@ -5695,6 +6325,11 @@
       <c r="E127" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F127" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="4" t="inlineStr">
@@ -5732,6 +6367,11 @@
       </c>
       <c r="E128" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F128" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="129">
@@ -5775,6 +6415,11 @@
       <c r="E129" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F129" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="4" t="inlineStr">
@@ -5811,6 +6456,11 @@
       </c>
       <c r="E130" s="6" t="n">
         <v>0.25</v>
+      </c>
+      <c r="F130" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="131">
@@ -5866,6 +6516,11 @@
       </c>
       <c r="E131" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F131" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="132">
@@ -5925,6 +6580,11 @@
       <c r="E132" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F132" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="4" t="inlineStr">
@@ -5972,6 +6632,11 @@
       </c>
       <c r="E133" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F133" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="134">
@@ -6025,6 +6690,11 @@
       <c r="E134" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F134" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="4" t="inlineStr">
@@ -6071,6 +6741,11 @@
       <c r="E135" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F135" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="4" t="inlineStr">
@@ -6113,6 +6788,11 @@
       <c r="E136" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F136" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="4" t="inlineStr">
@@ -6154,6 +6834,11 @@
       <c r="E137" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F137" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="4" t="inlineStr">
@@ -6191,6 +6876,11 @@
       <c r="E138" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F138" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="4" t="inlineStr">
@@ -6222,6 +6912,11 @@
       <c r="E139" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F139" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="4" t="inlineStr">
@@ -6252,6 +6947,11 @@
       </c>
       <c r="E140" s="6" t="n">
         <v>0.14</v>
+      </c>
+      <c r="F140" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="141">
@@ -6288,6 +6988,11 @@
       <c r="E141" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F141" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="4" t="inlineStr">
@@ -6320,6 +7025,11 @@
       <c r="E142" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F142" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="4" t="inlineStr">
@@ -6351,6 +7061,11 @@
       </c>
       <c r="E143" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F143" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="144">
@@ -6393,6 +7108,11 @@
       <c r="E144" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F144" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="4" t="inlineStr">
@@ -6430,6 +7150,11 @@
       </c>
       <c r="E145" s="6" t="n">
         <v>0.51</v>
+      </c>
+      <c r="F145" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="146">
@@ -6496,6 +7221,11 @@
       <c r="E146" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F146" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="4" t="inlineStr">
@@ -6550,6 +7280,11 @@
       <c r="E147" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F147" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="4" t="inlineStr">
@@ -6613,6 +7348,11 @@
       <c r="E148" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F148" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="4" t="inlineStr">
@@ -6671,6 +7411,11 @@
       <c r="E149" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F149" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="4" t="inlineStr">
@@ -6727,6 +7472,11 @@
       </c>
       <c r="E150" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F150" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="151">
@@ -6774,6 +7524,11 @@
       <c r="E151" s="6" t="n">
         <v>0.47</v>
       </c>
+      <c r="F151" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="4" t="inlineStr">
@@ -6817,6 +7572,11 @@
       </c>
       <c r="E152" s="6" t="n">
         <v>0.5</v>
+      </c>
+      <c r="F152" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="153">
@@ -6865,6 +7625,11 @@
       <c r="E153" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F153" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="4" t="inlineStr">
@@ -6910,6 +7675,11 @@
       </c>
       <c r="E154" s="6" t="n">
         <v>0.38</v>
+      </c>
+      <c r="F154" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="155">
@@ -6958,6 +7728,11 @@
       <c r="E155" s="6" t="n">
         <v>0.45</v>
       </c>
+      <c r="F155" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="4" t="inlineStr">
@@ -6996,6 +7771,11 @@
       <c r="E156" s="6" t="n">
         <v>0.02</v>
       </c>
+      <c r="F156" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="4" t="inlineStr">
@@ -7035,6 +7815,11 @@
       <c r="E157" s="6" t="n">
         <v>0.57</v>
       </c>
+      <c r="F157" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="4" t="inlineStr">
@@ -7074,6 +7859,11 @@
       <c r="E158" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F158" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="4" t="inlineStr">
@@ -7102,6 +7892,11 @@
       <c r="E159" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F159" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="4" t="inlineStr">
@@ -7130,6 +7925,11 @@
       <c r="E160" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F160" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="4" t="inlineStr">
@@ -7157,6 +7957,11 @@
       </c>
       <c r="E161" s="6" t="n">
         <v>0.24</v>
+      </c>
+      <c r="F161" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="162">
@@ -7204,6 +8009,11 @@
       <c r="E162" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F162" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="4" t="inlineStr">
@@ -7247,6 +8057,11 @@
       </c>
       <c r="E163" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F163" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="164">
@@ -7293,6 +8108,11 @@
       <c r="E164" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F164" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="4" t="inlineStr">
@@ -7331,6 +8151,11 @@
       </c>
       <c r="E165" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F165" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="166">
@@ -7378,6 +8203,11 @@
       <c r="E166" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F166" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="4" t="inlineStr">
@@ -7415,6 +8245,11 @@
       <c r="E167" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F167" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="4" t="inlineStr">
@@ -7452,6 +8287,11 @@
       <c r="E168" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F168" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="4" t="inlineStr">
@@ -7489,6 +8329,11 @@
       <c r="E169" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F169" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="4" t="inlineStr">
@@ -7526,6 +8371,11 @@
       <c r="E170" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F170" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="4" t="inlineStr">
@@ -7563,6 +8413,11 @@
       <c r="E171" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F171" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="4" t="inlineStr">
@@ -7601,6 +8456,11 @@
       <c r="E172" s="6" t="n">
         <v>0.65</v>
       </c>
+      <c r="F172" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="4" t="inlineStr">
@@ -7637,6 +8497,11 @@
       </c>
       <c r="E173" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F173" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="174">
@@ -7677,6 +8542,11 @@
       <c r="E174" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F174" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="4" t="inlineStr">
@@ -7713,6 +8583,11 @@
       <c r="E175" s="6" t="n">
         <v>0.51</v>
       </c>
+      <c r="F175" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="4" t="inlineStr">
@@ -7744,6 +8619,11 @@
       </c>
       <c r="E176" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F176" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="177">
@@ -7788,6 +8668,11 @@
       <c r="E177" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F177" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="4" t="inlineStr">
@@ -7830,6 +8715,11 @@
       <c r="E178" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F178" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="4" t="inlineStr">
@@ -7866,6 +8756,11 @@
       </c>
       <c r="E179" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F179" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="180">
@@ -7909,6 +8804,11 @@
       <c r="E180" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F180" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="4" t="inlineStr">
@@ -7951,6 +8851,11 @@
       <c r="E181" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F181" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="4" t="inlineStr">
@@ -7988,6 +8893,11 @@
       </c>
       <c r="E182" s="6" t="n">
         <v>0.6</v>
+      </c>
+      <c r="F182" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="183">
@@ -8033,6 +8943,11 @@
       <c r="E183" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F183" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="4" t="inlineStr">
@@ -8070,6 +8985,11 @@
       </c>
       <c r="E184" s="6" t="n">
         <v>0.48</v>
+      </c>
+      <c r="F184" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="185">
@@ -8113,6 +9033,11 @@
       </c>
       <c r="E185" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F185" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="186">
@@ -8159,6 +9084,11 @@
       <c r="E186" s="6" t="n">
         <v>0.65</v>
       </c>
+      <c r="F186" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="4" t="inlineStr">
@@ -8200,6 +9130,11 @@
       <c r="E187" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F187" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="4" t="inlineStr">
@@ -8241,6 +9176,11 @@
       <c r="E188" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F188" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="4" t="inlineStr">
@@ -8268,6 +9208,11 @@
       <c r="E189" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F189" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="4" t="inlineStr">
@@ -8294,6 +9239,11 @@
       </c>
       <c r="E190" s="6" t="n">
         <v>0.37</v>
+      </c>
+      <c r="F190" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="191">
@@ -8338,6 +9288,11 @@
       <c r="E191" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F191" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="4" t="inlineStr">
@@ -8373,6 +9328,11 @@
       </c>
       <c r="E192" s="6" t="n">
         <v>0.27</v>
+      </c>
+      <c r="F192" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="193">
@@ -8410,6 +9370,11 @@
       </c>
       <c r="E193" s="6" t="n">
         <v>0.42</v>
+      </c>
+      <c r="F193" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="194">
@@ -8445,6 +9410,11 @@
       <c r="E194" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F194" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="4" t="inlineStr">
@@ -8483,6 +9453,11 @@
       <c r="E195" s="6" t="n">
         <v>0.39</v>
       </c>
+      <c r="F195" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="4" t="inlineStr">
@@ -8517,6 +9492,11 @@
       <c r="E196" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F196" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="4" t="inlineStr">
@@ -8550,6 +9530,11 @@
       <c r="E197" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F197" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="4" t="inlineStr">
@@ -8583,6 +9568,11 @@
       <c r="E198" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F198" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="4" t="inlineStr">
@@ -8616,6 +9606,11 @@
       <c r="E199" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F199" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="4" t="inlineStr">
@@ -8649,6 +9644,11 @@
       <c r="E200" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F200" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="4" t="inlineStr">
@@ -8681,6 +9681,11 @@
       </c>
       <c r="E201" s="6" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F201" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="202">
@@ -8737,6 +9742,11 @@
       <c r="E202" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F202" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="4" t="inlineStr">
@@ -8782,6 +9792,11 @@
       </c>
       <c r="E203" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F203" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="204">
@@ -8836,6 +9851,11 @@
       <c r="E204" s="6" t="n">
         <v>0.88</v>
       </c>
+      <c r="F204" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="4" t="inlineStr">
@@ -8880,6 +9900,11 @@
       </c>
       <c r="E205" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F205" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="206">
@@ -8927,6 +9952,11 @@
       <c r="E206" s="6" t="n">
         <v>0.44</v>
       </c>
+      <c r="F206" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="4" t="inlineStr">
@@ -8958,6 +9988,11 @@
       <c r="E207" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F207" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="4" t="inlineStr">
@@ -8993,6 +10028,11 @@
       <c r="E208" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F208" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="4" t="inlineStr">
@@ -9027,6 +10067,11 @@
       </c>
       <c r="E209" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F209" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="210">
@@ -9068,6 +10113,11 @@
       </c>
       <c r="E210" s="6" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F210" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="211">
@@ -9117,6 +10167,11 @@
       <c r="E211" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F211" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="4" t="inlineStr">
@@ -9164,6 +10219,11 @@
       <c r="E212" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F212" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="4" t="inlineStr">
@@ -9209,6 +10269,11 @@
       <c r="E213" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F213" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="4" t="inlineStr">
@@ -9253,6 +10318,11 @@
       <c r="E214" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F214" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="4" t="inlineStr">
@@ -9293,6 +10363,11 @@
       <c r="E215" s="6" t="n">
         <v>0.37</v>
       </c>
+      <c r="F215" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="4" t="inlineStr">
@@ -9329,6 +10404,11 @@
       <c r="E216" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F216" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="4" t="inlineStr">
@@ -9369,6 +10449,11 @@
       <c r="E217" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F217" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="4" t="inlineStr">
@@ -9407,6 +10492,11 @@
       </c>
       <c r="E218" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F218" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="219">
@@ -9448,6 +10538,11 @@
       <c r="E219" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F219" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="4" t="inlineStr">
@@ -9474,6 +10569,11 @@
       </c>
       <c r="E220" s="6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F220" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="221">
@@ -9506,6 +10606,11 @@
       <c r="E221" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F221" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="4" t="inlineStr">
@@ -9537,6 +10642,11 @@
       <c r="E222" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F222" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="4" t="inlineStr">
@@ -9563,6 +10673,11 @@
       </c>
       <c r="E223" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F223" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="224">
@@ -9598,6 +10713,11 @@
       <c r="E224" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F224" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="4" t="inlineStr">
@@ -9632,6 +10752,11 @@
       <c r="E225" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F225" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="4" t="inlineStr">
@@ -9665,6 +10790,11 @@
       </c>
       <c r="E226" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F226" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="227">
@@ -9704,6 +10834,11 @@
       </c>
       <c r="E227" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F227" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="228">
@@ -9746,6 +10881,11 @@
       <c r="E228" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F228" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="4" t="inlineStr">
@@ -9784,6 +10924,11 @@
       </c>
       <c r="E229" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F229" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="230">
@@ -9827,6 +10972,11 @@
       <c r="E230" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F230" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="4" t="inlineStr">
@@ -9865,6 +11015,11 @@
       </c>
       <c r="E231" s="6" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F231" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="232">
@@ -9910,6 +11065,11 @@
       <c r="E232" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F232" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="4" t="inlineStr">
@@ -9954,6 +11114,11 @@
       <c r="E233" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F233" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="4" t="inlineStr">
@@ -9990,6 +11155,11 @@
       </c>
       <c r="E234" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F234" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="235">
@@ -10036,6 +11206,11 @@
       <c r="E235" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F235" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="4" t="inlineStr">
@@ -10073,6 +11248,11 @@
       </c>
       <c r="E236" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F236" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="237">
@@ -10129,6 +11309,11 @@
       <c r="E237" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F237" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="4" t="inlineStr">
@@ -10171,6 +11356,11 @@
       <c r="E238" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F238" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="4" t="inlineStr">
@@ -10213,6 +11403,11 @@
       </c>
       <c r="E239" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F239" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="240">
@@ -10267,6 +11462,11 @@
       <c r="E240" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F240" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="4" t="inlineStr">
@@ -10318,6 +11518,11 @@
       <c r="E241" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F241" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="4" t="inlineStr">
@@ -10345,6 +11550,11 @@
       <c r="E242" s="6" t="n">
         <v>0.53</v>
       </c>
+      <c r="F242" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="4" t="inlineStr">
@@ -10371,6 +11581,11 @@
       </c>
       <c r="E243" s="6" t="n">
         <v>0.8</v>
+      </c>
+      <c r="F243" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="244">
@@ -10402,6 +11617,11 @@
       </c>
       <c r="E244" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F244" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="245">
@@ -10438,6 +11658,11 @@
       </c>
       <c r="E245" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F245" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="246">
@@ -10476,6 +11701,11 @@
       <c r="E246" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F246" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="4" t="inlineStr">
@@ -10529,6 +11759,11 @@
       </c>
       <c r="E247" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F247" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="248">
@@ -10591,6 +11826,11 @@
       <c r="E248" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F248" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="4" t="inlineStr">
@@ -10648,6 +11888,11 @@
       </c>
       <c r="E249" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F249" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="250">
@@ -10702,6 +11947,11 @@
       <c r="E250" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F250" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="4" t="inlineStr">
@@ -10759,6 +12009,11 @@
       <c r="E251" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F251" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="4" t="inlineStr">
@@ -10816,6 +12071,11 @@
       <c r="E252" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F252" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="4" t="inlineStr">
@@ -10873,6 +12133,11 @@
       <c r="E253" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F253" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="4" t="inlineStr">
@@ -10907,6 +12172,11 @@
       <c r="E254" s="6" t="n">
         <v>0.21</v>
       </c>
+      <c r="F254" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="4" t="inlineStr">
@@ -10941,6 +12211,11 @@
       <c r="E255" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F255" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="4" t="inlineStr">
@@ -10974,6 +12249,11 @@
       </c>
       <c r="E256" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F256" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="257">
@@ -11010,6 +12290,11 @@
       <c r="E257" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F257" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="4" t="inlineStr">
@@ -11044,6 +12329,11 @@
       </c>
       <c r="E258" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F258" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="259">
@@ -11081,6 +12371,11 @@
       <c r="E259" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F259" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="4" t="inlineStr">
@@ -11117,6 +12412,11 @@
       <c r="E260" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F260" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="4" t="inlineStr">
@@ -11152,6 +12452,11 @@
       </c>
       <c r="E261" s="6" t="n">
         <v>0.45</v>
+      </c>
+      <c r="F261" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="262">
@@ -11190,6 +12495,11 @@
       <c r="E262" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F262" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="4" t="inlineStr">
@@ -11227,6 +12537,11 @@
       <c r="E263" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F263" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="4" t="inlineStr">
@@ -11261,6 +12576,11 @@
       </c>
       <c r="E264" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F264" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="265">
@@ -11297,6 +12617,11 @@
       </c>
       <c r="E265" s="6" t="n">
         <v>0.13</v>
+      </c>
+      <c r="F265" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="266">
@@ -11346,6 +12671,11 @@
       </c>
       <c r="E266" s="6" t="n">
         <v>0.41</v>
+      </c>
+      <c r="F266" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="267">
@@ -11393,6 +12723,11 @@
       <c r="E267" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F267" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="4" t="inlineStr">
@@ -11441,6 +12776,11 @@
       <c r="E268" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F268" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="4" t="inlineStr">
@@ -11466,6 +12806,11 @@
       </c>
       <c r="E269" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F269" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="270">
@@ -11496,6 +12841,11 @@
       </c>
       <c r="E270" s="6" t="n">
         <v>0.28</v>
+      </c>
+      <c r="F270" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="271">
@@ -11527,6 +12877,11 @@
       </c>
       <c r="E271" s="6" t="n">
         <v>0.46</v>
+      </c>
+      <c r="F271" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="272">
@@ -11565,6 +12920,11 @@
       </c>
       <c r="E272" s="6" t="n">
         <v>0.13</v>
+      </c>
+      <c r="F272" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="273">
@@ -11608,6 +12968,11 @@
       <c r="E273" s="6" t="n">
         <v>0.7</v>
       </c>
+      <c r="F273" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="4" t="inlineStr">
@@ -11649,6 +13014,11 @@
       <c r="E274" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F274" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="4" t="inlineStr">
@@ -11689,6 +13059,11 @@
       </c>
       <c r="E275" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F275" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="276">
@@ -11732,6 +13107,11 @@
       <c r="E276" s="6" t="n">
         <v>0.85</v>
       </c>
+      <c r="F276" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="4" t="inlineStr">
@@ -11766,6 +13146,11 @@
       </c>
       <c r="E277" s="6" t="n">
         <v>0.55</v>
+      </c>
+      <c r="F277" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="278">
@@ -11806,6 +13191,11 @@
       <c r="E278" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F278" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="4" t="inlineStr">
@@ -11845,6 +13235,11 @@
       <c r="E279" s="6" t="n">
         <v>0.61</v>
       </c>
+      <c r="F279" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="4" t="inlineStr">
@@ -11883,6 +13278,11 @@
       <c r="E280" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F280" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="4" t="inlineStr">
@@ -11918,6 +13318,11 @@
       </c>
       <c r="E281" s="6" t="n">
         <v>0.27</v>
+      </c>
+      <c r="F281" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="282">
@@ -11957,6 +13362,11 @@
       <c r="E282" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F282" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="4" t="inlineStr">
@@ -11993,6 +13403,11 @@
       </c>
       <c r="E283" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F283" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="284">
@@ -12031,6 +13446,11 @@
       <c r="E284" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F284" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="4" t="inlineStr">
@@ -12068,6 +13488,11 @@
       <c r="E285" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F285" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="4" t="inlineStr">
@@ -12105,6 +13530,11 @@
       <c r="E286" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F286" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="4" t="inlineStr">
@@ -12142,6 +13572,11 @@
       <c r="E287" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F287" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="4" t="inlineStr">
@@ -12178,6 +13613,11 @@
       </c>
       <c r="E288" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F288" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="289">
@@ -12216,6 +13656,11 @@
       </c>
       <c r="E289" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F289" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="290">
@@ -12256,6 +13701,11 @@
       </c>
       <c r="E290" s="6" t="n">
         <v>0.67</v>
+      </c>
+      <c r="F290" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="291">
@@ -12300,6 +13750,11 @@
       <c r="E291" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F291" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="4" t="inlineStr">
@@ -12326,6 +13781,11 @@
       </c>
       <c r="E292" s="6" t="n">
         <v>0.11</v>
+      </c>
+      <c r="F292" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="293">
@@ -12354,6 +13814,11 @@
       </c>
       <c r="E293" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F293" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="294">
@@ -12389,6 +13854,11 @@
       </c>
       <c r="E294" s="6" t="n">
         <v>0.42</v>
+      </c>
+      <c r="F294" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="295">
@@ -12426,6 +13896,11 @@
       <c r="E295" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F295" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="4" t="inlineStr">
@@ -12462,6 +13937,11 @@
       <c r="E296" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F296" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="4" t="inlineStr">
@@ -12497,6 +13977,11 @@
       </c>
       <c r="E297" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F297" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="298">
@@ -12544,6 +14029,11 @@
       <c r="E298" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F298" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="4" t="inlineStr">
@@ -12586,6 +14076,11 @@
       <c r="E299" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F299" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="4" t="inlineStr">
@@ -12628,6 +14123,11 @@
       </c>
       <c r="E300" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F300" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="301">
@@ -12673,6 +14173,11 @@
       <c r="E301" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F301" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="4" t="inlineStr">
@@ -12715,6 +14220,11 @@
       <c r="E302" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F302" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="4" t="inlineStr">
@@ -12753,6 +14263,11 @@
       <c r="E303" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F303" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="4" t="inlineStr">
@@ -12790,6 +14305,11 @@
       </c>
       <c r="E304" s="6" t="n">
         <v>0.34</v>
+      </c>
+      <c r="F304" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="305">
@@ -12830,6 +14350,11 @@
       </c>
       <c r="E305" s="6" t="n">
         <v>0.47</v>
+      </c>
+      <c r="F305" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="306">
@@ -12871,6 +14396,11 @@
       </c>
       <c r="E306" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F306" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="307">
@@ -12914,6 +14444,11 @@
       <c r="E307" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F307" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="4" t="inlineStr">
@@ -12953,6 +14488,11 @@
       <c r="E308" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F308" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="4" t="inlineStr">
@@ -12992,6 +14532,11 @@
       <c r="E309" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F309" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="4" t="inlineStr">
@@ -13028,6 +14573,11 @@
       <c r="E310" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F310" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="4" t="inlineStr">
@@ -13063,6 +14613,11 @@
       </c>
       <c r="E311" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F311" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="312">
@@ -13099,6 +14654,11 @@
       <c r="E312" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F312" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="4" t="inlineStr">
@@ -13130,6 +14690,11 @@
       </c>
       <c r="E313" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F313" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="314">
@@ -13167,6 +14732,11 @@
       <c r="E314" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F314" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="4" t="inlineStr">
@@ -13199,6 +14769,11 @@
       <c r="E315" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F315" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="4" t="inlineStr">
@@ -13237,6 +14812,11 @@
       <c r="E316" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F316" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="4" t="inlineStr">
@@ -13270,6 +14850,11 @@
       <c r="E317" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F317" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="4" t="inlineStr">
@@ -13302,6 +14887,11 @@
       </c>
       <c r="E318" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F318" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="319">
@@ -13336,6 +14926,11 @@
       </c>
       <c r="E319" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F319" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="320">
@@ -13371,6 +14966,11 @@
       </c>
       <c r="E320" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F320" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="321">
@@ -13408,6 +15008,11 @@
       <c r="E321" s="6" t="n">
         <v>0.88</v>
       </c>
+      <c r="F321" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="4" t="inlineStr">
@@ -13433,6 +15038,11 @@
       </c>
       <c r="E322" s="6" t="n">
         <v>0.82</v>
+      </c>
+      <c r="F322" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="323">
@@ -13463,6 +15073,11 @@
       <c r="E323" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F323" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="4" t="inlineStr">
@@ -13490,6 +15105,11 @@
       </c>
       <c r="E324" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F324" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="325">
@@ -13552,6 +15172,11 @@
       <c r="E325" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F325" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="4" t="inlineStr">
@@ -13592,6 +15217,11 @@
       </c>
       <c r="E326" s="6" t="n">
         <v>0.05</v>
+      </c>
+      <c r="F326" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="327">
@@ -13638,6 +15268,11 @@
       </c>
       <c r="E327" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F327" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="328">
@@ -13692,6 +15327,11 @@
       </c>
       <c r="E328" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F328" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="329">
@@ -13753,6 +15393,11 @@
       <c r="E329" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F329" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="4" t="inlineStr">
@@ -13791,6 +15436,11 @@
       </c>
       <c r="E330" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F330" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="331">
@@ -13838,6 +15488,11 @@
       <c r="E331" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F331" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="4" t="inlineStr">
@@ -13877,6 +15532,11 @@
       <c r="E332" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F332" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="4" t="inlineStr">
@@ -13911,6 +15571,11 @@
       </c>
       <c r="E333" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F333" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="334">
@@ -13950,6 +15615,11 @@
       <c r="E334" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F334" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="4" t="inlineStr">
@@ -13991,6 +15661,11 @@
       <c r="E335" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F335" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="4" t="inlineStr">
@@ -14031,6 +15706,11 @@
       </c>
       <c r="E336" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F336" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="337">
@@ -14085,6 +15765,11 @@
       <c r="E337" s="6" t="n">
         <v>0.85</v>
       </c>
+      <c r="F337" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="4" t="inlineStr">
@@ -14130,6 +15815,11 @@
       </c>
       <c r="E338" s="6" t="n">
         <v>0.6</v>
+      </c>
+      <c r="F338" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="339">
@@ -14192,6 +15882,11 @@
       <c r="E339" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F339" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="4" t="inlineStr">
@@ -14251,6 +15946,11 @@
       <c r="E340" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F340" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="4" t="inlineStr">
@@ -14297,6 +15997,11 @@
       <c r="E341" s="6" t="n">
         <v>0.52</v>
       </c>
+      <c r="F341" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="4" t="inlineStr">
@@ -14338,6 +16043,11 @@
       <c r="E342" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F342" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="4" t="inlineStr">
@@ -14379,6 +16089,11 @@
       <c r="E343" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F343" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="4" t="inlineStr">
@@ -14419,6 +16134,11 @@
       <c r="E344" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F344" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="4" t="inlineStr">
@@ -14457,6 +16177,11 @@
       </c>
       <c r="E345" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F345" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="346">
@@ -14498,6 +16223,11 @@
       <c r="E346" s="6" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="F346" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="4" t="inlineStr">
@@ -14538,6 +16268,11 @@
       <c r="E347" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F347" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="4" t="inlineStr">
@@ -14575,6 +16310,11 @@
       <c r="E348" s="6" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="F348" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="4" t="inlineStr">
@@ -14612,6 +16352,11 @@
       <c r="E349" s="6" t="n">
         <v>0.83</v>
       </c>
+      <c r="F349" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="4" t="inlineStr">
@@ -14648,6 +16393,11 @@
       </c>
       <c r="E350" s="6" t="n">
         <v>0.01</v>
+      </c>
+      <c r="F350" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="351">
@@ -14689,6 +16439,11 @@
       <c r="E351" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F351" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="4" t="inlineStr">
@@ -14741,6 +16496,11 @@
       <c r="E352" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F352" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="4" t="inlineStr">
@@ -14792,6 +16552,11 @@
       </c>
       <c r="E353" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F353" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="354">
@@ -14843,6 +16608,11 @@
       <c r="E354" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F354" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="4" t="inlineStr">
@@ -14897,6 +16667,11 @@
       <c r="E355" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F355" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="4" t="inlineStr">
@@ -14948,6 +16723,11 @@
       </c>
       <c r="E356" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F356" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="357">
@@ -14984,6 +16764,11 @@
       <c r="E357" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F357" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="4" t="inlineStr">
@@ -15014,6 +16799,11 @@
       <c r="E358" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F358" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="4" t="inlineStr">
@@ -15044,6 +16834,11 @@
       <c r="E359" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F359" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="4" t="inlineStr">
@@ -15074,6 +16869,11 @@
       <c r="E360" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F360" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="4" t="inlineStr">
@@ -15103,6 +16903,11 @@
       </c>
       <c r="E361" s="6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F361" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="362">
@@ -15138,6 +16943,11 @@
       <c r="E362" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F362" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="4" t="inlineStr">
@@ -15168,6 +16978,11 @@
       <c r="E363" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F363" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="4" t="inlineStr">
@@ -15198,6 +17013,11 @@
       <c r="E364" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F364" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="4" t="inlineStr">
@@ -15232,6 +17052,11 @@
       <c r="E365" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F365" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="4" t="inlineStr">
@@ -15265,6 +17090,11 @@
       </c>
       <c r="E366" s="6" t="n">
         <v>0.46</v>
+      </c>
+      <c r="F366" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="367">
@@ -15302,6 +17132,11 @@
       </c>
       <c r="E367" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F367" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="368">
@@ -15361,6 +17196,11 @@
       <c r="E368" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F368" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="4" t="inlineStr">
@@ -15415,6 +17255,11 @@
       <c r="E369" s="6" t="n">
         <v>0.57</v>
       </c>
+      <c r="F369" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="4" t="inlineStr">
@@ -15464,6 +17309,11 @@
       <c r="E370" s="6" t="n">
         <v>0.11</v>
       </c>
+      <c r="F370" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="4" t="inlineStr">
@@ -15520,6 +17370,11 @@
       <c r="E371" s="6" t="n">
         <v>0.86</v>
       </c>
+      <c r="F371" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="4" t="inlineStr">
@@ -15577,6 +17432,11 @@
       <c r="E372" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F372" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="4" t="inlineStr">
@@ -15615,6 +17475,11 @@
       </c>
       <c r="E373" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F373" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="374">
@@ -15657,6 +17522,11 @@
       <c r="E374" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F374" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="4" t="inlineStr">
@@ -15696,6 +17566,11 @@
       </c>
       <c r="E375" s="6" t="n">
         <v>0.67</v>
+      </c>
+      <c r="F375" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="376">
@@ -15740,6 +17615,11 @@
       </c>
       <c r="E376" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F376" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="377">
@@ -15786,6 +17666,11 @@
       <c r="E377" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F377" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="4" t="inlineStr">
@@ -15826,6 +17711,11 @@
       </c>
       <c r="E378" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F378" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="379">
@@ -15868,6 +17758,11 @@
       </c>
       <c r="E379" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F379" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="380">
@@ -15913,6 +17808,11 @@
       <c r="E380" s="6" t="n">
         <v>0.36</v>
       </c>
+      <c r="F380" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="4" t="inlineStr">
@@ -15954,6 +17854,11 @@
       </c>
       <c r="E381" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F381" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="382">
@@ -15999,6 +17904,11 @@
       <c r="E382" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F382" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="4" t="inlineStr">
@@ -16028,6 +17938,11 @@
       <c r="E383" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F383" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="4" t="inlineStr">
@@ -16057,6 +17972,11 @@
       <c r="E384" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F384" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="4" t="inlineStr">
@@ -16086,6 +18006,11 @@
       <c r="E385" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F385" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="4" t="inlineStr">
@@ -16115,6 +18040,11 @@
       <c r="E386" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F386" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="4" t="inlineStr">
@@ -16143,6 +18073,11 @@
       </c>
       <c r="E387" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F387" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="388">
@@ -16183,6 +18118,11 @@
       </c>
       <c r="E388" s="6" t="n">
         <v>0.08</v>
+      </c>
+      <c r="F388" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="389">
@@ -16225,6 +18165,11 @@
       <c r="E389" s="6" t="n">
         <v>0.54</v>
       </c>
+      <c r="F389" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="4" t="inlineStr">
@@ -16266,6 +18211,11 @@
       <c r="E390" s="6" t="n">
         <v>0.41</v>
       </c>
+      <c r="F390" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="4" t="inlineStr">
@@ -16303,6 +18253,11 @@
       <c r="E391" s="6" t="n">
         <v>0.5600000000000001</v>
       </c>
+      <c r="F391" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="4" t="inlineStr">
@@ -16336,6 +18291,11 @@
       <c r="E392" s="6" t="n">
         <v>0.5</v>
       </c>
+      <c r="F392" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="4" t="inlineStr">
@@ -16368,6 +18328,11 @@
       <c r="E393" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F393" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="4" t="inlineStr">
@@ -16400,6 +18365,11 @@
       <c r="E394" s="6" t="n">
         <v>0.17</v>
       </c>
+      <c r="F394" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="4" t="inlineStr">
@@ -16430,6 +18400,11 @@
       </c>
       <c r="E395" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F395" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="396">
@@ -16462,6 +18437,11 @@
       </c>
       <c r="E396" s="6" t="n">
         <v>0.06</v>
+      </c>
+      <c r="F396" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="397">
@@ -16506,6 +18486,11 @@
       <c r="E397" s="6" t="n">
         <v>0.26</v>
       </c>
+      <c r="F397" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="4" t="inlineStr">
@@ -16545,6 +18530,11 @@
       </c>
       <c r="E398" s="6" t="n">
         <v>0.24</v>
+      </c>
+      <c r="F398" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="399">
@@ -16589,6 +18579,11 @@
       <c r="E399" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F399" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="4" t="inlineStr">
@@ -16616,6 +18611,11 @@
       </c>
       <c r="E400" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F400" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="401">
@@ -16648,6 +18648,11 @@
       <c r="E401" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F401" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="4" t="inlineStr">
@@ -16679,6 +18684,11 @@
       <c r="E402" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F402" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="4" t="inlineStr">
@@ -16710,6 +18720,11 @@
       <c r="E403" s="6" t="n">
         <v>0.98</v>
       </c>
+      <c r="F403" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="4" t="inlineStr">
@@ -16737,6 +18752,11 @@
       </c>
       <c r="E404" s="6" t="n">
         <v>0.13</v>
+      </c>
+      <c r="F404" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="405">
@@ -16769,6 +18789,11 @@
       <c r="E405" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F405" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="4" t="inlineStr">
@@ -16799,6 +18824,11 @@
       <c r="E406" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F406" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="4" t="inlineStr">
@@ -16828,6 +18858,11 @@
       </c>
       <c r="E407" s="6" t="n">
         <v>0.18</v>
+      </c>
+      <c r="F407" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="408">
@@ -16861,6 +18896,11 @@
       <c r="E408" s="6" t="n">
         <v>0.51</v>
       </c>
+      <c r="F408" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="4" t="inlineStr">
@@ -16887,6 +18927,11 @@
       <c r="E409" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F409" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="4" t="inlineStr">
@@ -16916,6 +18961,11 @@
       </c>
       <c r="E410" s="6" t="n">
         <v>0.87</v>
+      </c>
+      <c r="F410" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="411">
@@ -16961,6 +19011,11 @@
       </c>
       <c r="E411" s="6" t="n">
         <v>0.42</v>
+      </c>
+      <c r="F411" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="412">
@@ -17009,6 +19064,11 @@
       <c r="E412" s="6" t="n">
         <v>0.41</v>
       </c>
+      <c r="F412" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="4" t="inlineStr">
@@ -17048,6 +19108,11 @@
       </c>
       <c r="E413" s="6" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F413" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="414">
@@ -17091,6 +19156,11 @@
       </c>
       <c r="E414" s="6" t="n">
         <v>0.37</v>
+      </c>
+      <c r="F414" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="415">
@@ -17139,6 +19209,11 @@
       <c r="E415" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F415" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="4" t="inlineStr">
@@ -17181,6 +19256,11 @@
       <c r="E416" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F416" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="4" t="inlineStr">
@@ -17223,6 +19303,11 @@
       <c r="E417" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F417" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="4" t="inlineStr">
@@ -17264,6 +19349,11 @@
       <c r="E418" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F418" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="4" t="inlineStr">
@@ -17304,6 +19394,11 @@
       <c r="E419" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F419" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="4" t="inlineStr">
@@ -17343,6 +19438,11 @@
       <c r="E420" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F420" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="4" t="inlineStr">
@@ -17372,6 +19472,11 @@
       </c>
       <c r="E421" s="6" t="n">
         <v>0.25</v>
+      </c>
+      <c r="F421" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="422">
@@ -17404,6 +19509,11 @@
       <c r="E422" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F422" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="4" t="inlineStr">
@@ -17433,6 +19543,11 @@
       </c>
       <c r="E423" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F423" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="424">
@@ -17466,6 +19581,11 @@
       <c r="E424" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F424" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="4" t="inlineStr">
@@ -17496,6 +19616,11 @@
       </c>
       <c r="E425" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F425" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="426">
@@ -17529,6 +19654,11 @@
       <c r="E426" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F426" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="4" t="inlineStr">
@@ -17561,6 +19691,11 @@
       <c r="E427" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F427" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="4" t="inlineStr">
@@ -17593,6 +19728,11 @@
       <c r="E428" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F428" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="4" t="inlineStr">
@@ -17620,6 +19760,11 @@
       </c>
       <c r="E429" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F429" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="430">
@@ -17649,6 +19794,11 @@
       </c>
       <c r="E430" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F430" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="431">
@@ -17684,6 +19834,11 @@
       <c r="E431" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F431" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="4" t="inlineStr">
@@ -17718,6 +19873,11 @@
       <c r="E432" s="6" t="n">
         <v>0.8</v>
       </c>
+      <c r="F432" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="4" t="inlineStr">
@@ -17751,6 +19911,11 @@
       <c r="E433" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F433" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="4" t="inlineStr">
@@ -17779,6 +19944,11 @@
       </c>
       <c r="E434" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F434" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="435">
@@ -17821,6 +19991,11 @@
       <c r="E435" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F435" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="4" t="inlineStr">
@@ -17859,6 +20034,11 @@
       <c r="E436" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F436" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="4" t="inlineStr">
@@ -17893,6 +20073,11 @@
       <c r="E437" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F437" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="4" t="inlineStr">
@@ -17929,6 +20114,11 @@
       </c>
       <c r="E438" s="6" t="n">
         <v>0.25</v>
+      </c>
+      <c r="F438" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="439">
@@ -17972,6 +20162,11 @@
       <c r="E439" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F439" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="4" t="inlineStr">
@@ -18009,6 +20204,11 @@
       <c r="E440" s="6" t="n">
         <v>0.78</v>
       </c>
+      <c r="F440" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="4" t="inlineStr">
@@ -18042,6 +20242,11 @@
       </c>
       <c r="E441" s="6" t="n">
         <v>0.01</v>
+      </c>
+      <c r="F441" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="442">
@@ -18079,6 +20284,11 @@
       <c r="E442" s="6" t="n">
         <v>0.43</v>
       </c>
+      <c r="F442" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="4" t="inlineStr">
@@ -18113,6 +20323,11 @@
       </c>
       <c r="E443" s="6" t="n">
         <v>0.02</v>
+      </c>
+      <c r="F443" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="444">
@@ -18164,6 +20379,11 @@
       <c r="E444" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F444" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="4" t="inlineStr">
@@ -18208,6 +20428,11 @@
       </c>
       <c r="E445" s="6" t="n">
         <v>0.24</v>
+      </c>
+      <c r="F445" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="446">
@@ -18258,6 +20483,11 @@
       <c r="E446" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F446" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="4" t="inlineStr">
@@ -18306,6 +20536,11 @@
       </c>
       <c r="E447" s="6" t="n">
         <v>0.06</v>
+      </c>
+      <c r="F447" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="448">
@@ -18354,6 +20589,11 @@
       <c r="E448" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F448" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="4" t="inlineStr">
@@ -18384,6 +20624,11 @@
       <c r="E449" s="6" t="n">
         <v>0.33</v>
       </c>
+      <c r="F449" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="4" t="inlineStr">
@@ -18413,6 +20658,11 @@
       </c>
       <c r="E450" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F450" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="451">
@@ -18455,6 +20705,11 @@
       <c r="E451" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F451" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="4" t="inlineStr">
@@ -18494,6 +20749,11 @@
       </c>
       <c r="E452" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F452" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="453">
@@ -18536,6 +20796,11 @@
       <c r="E453" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F453" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="4" t="inlineStr">
@@ -18574,6 +20839,11 @@
       <c r="E454" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F454" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="4" t="inlineStr">
@@ -18612,6 +20882,11 @@
       <c r="E455" s="6" t="n">
         <v>0.27</v>
       </c>
+      <c r="F455" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="4" t="inlineStr">
@@ -18655,6 +20930,11 @@
       <c r="E456" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F456" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="4" t="inlineStr">
@@ -18696,6 +20976,11 @@
       </c>
       <c r="E457" s="6" t="n">
         <v>0.44</v>
+      </c>
+      <c r="F457" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="458">
@@ -18741,6 +21026,11 @@
       <c r="E458" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F458" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="4" t="inlineStr">
@@ -18775,6 +21065,11 @@
       <c r="E459" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F459" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="4" t="inlineStr">
@@ -18813,6 +21108,11 @@
       <c r="E460" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F460" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="4" t="inlineStr">
@@ -18852,6 +21152,11 @@
       </c>
       <c r="E461" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F461" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="462">
@@ -18894,6 +21199,11 @@
       <c r="E462" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F462" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="4" t="inlineStr">
@@ -18933,6 +21243,11 @@
       <c r="E463" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F463" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="4" t="inlineStr">
@@ -18970,6 +21285,11 @@
       <c r="E464" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F464" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="4" t="inlineStr">
@@ -19006,6 +21326,11 @@
       </c>
       <c r="E465" s="6" t="n">
         <v>0.21</v>
+      </c>
+      <c r="F465" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="466">
@@ -19054,6 +21379,11 @@
       </c>
       <c r="E466" s="6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F466" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="467">
@@ -19105,6 +21435,11 @@
       <c r="E467" s="6" t="n">
         <v>0.89</v>
       </c>
+      <c r="F467" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="4" t="inlineStr">
@@ -19142,6 +21477,11 @@
       </c>
       <c r="E468" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F468" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="469">
@@ -19186,6 +21526,11 @@
       </c>
       <c r="E469" s="6" t="n">
         <v>0.7</v>
+      </c>
+      <c r="F469" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="470">
@@ -19238,6 +21583,11 @@
       <c r="E470" s="6" t="n">
         <v>0.54</v>
       </c>
+      <c r="F470" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="4" t="inlineStr">
@@ -19271,6 +21621,11 @@
       <c r="E471" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F471" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="4" t="inlineStr">
@@ -19303,6 +21658,11 @@
       </c>
       <c r="E472" s="6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F472" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="473">
@@ -19347,6 +21707,11 @@
       </c>
       <c r="E473" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F473" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="474">
@@ -19393,6 +21758,11 @@
       <c r="E474" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F474" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="4" t="inlineStr">
@@ -19434,6 +21804,11 @@
       <c r="E475" s="6" t="n">
         <v>0.74</v>
       </c>
+      <c r="F475" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="4" t="inlineStr">
@@ -19473,6 +21848,11 @@
       </c>
       <c r="E476" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F476" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="477">
@@ -19517,6 +21897,11 @@
       <c r="E477" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F477" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="4" t="inlineStr">
@@ -19552,6 +21937,11 @@
       <c r="E478" s="6" t="n">
         <v>0.58</v>
       </c>
+      <c r="F478" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="4" t="inlineStr">
@@ -19583,6 +21973,11 @@
       <c r="E479" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F479" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="4" t="inlineStr">
@@ -19617,6 +22012,11 @@
       <c r="E480" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F480" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="4" t="inlineStr">
@@ -19651,6 +22051,11 @@
       <c r="E481" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F481" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="4" t="inlineStr">
@@ -19685,6 +22090,11 @@
       <c r="E482" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F482" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="4" t="inlineStr">
@@ -19719,6 +22129,11 @@
       <c r="E483" s="6" t="n">
         <v>0.55</v>
       </c>
+      <c r="F483" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="4" t="inlineStr">
@@ -19752,6 +22167,11 @@
       <c r="E484" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F484" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="4" t="inlineStr">
@@ -19785,6 +22205,11 @@
       <c r="E485" s="6" t="n">
         <v>0.24</v>
       </c>
+      <c r="F485" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="4" t="inlineStr">
@@ -19818,6 +22243,11 @@
       <c r="E486" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F486" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="4" t="inlineStr">
@@ -19851,6 +22281,11 @@
       <c r="E487" s="6" t="n">
         <v>0.53</v>
       </c>
+      <c r="F487" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="4" t="inlineStr">
@@ -19884,6 +22319,11 @@
       <c r="E488" s="6" t="n">
         <v>0.28</v>
       </c>
+      <c r="F488" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="4" t="inlineStr">
@@ -19915,6 +22355,11 @@
       <c r="E489" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F489" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="4" t="inlineStr">
@@ -19946,6 +22391,11 @@
       <c r="E490" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F490" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="4" t="inlineStr">
@@ -19976,6 +22426,11 @@
       </c>
       <c r="E491" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F491" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="492">
@@ -20022,6 +22477,11 @@
       </c>
       <c r="E492" s="6" t="n">
         <v>0.2</v>
+      </c>
+      <c r="F492" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="493">
@@ -20076,6 +22536,11 @@
       <c r="E493" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F493" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="4" t="inlineStr">
@@ -20127,6 +22592,11 @@
       <c r="E494" s="6" t="n">
         <v>0.1</v>
       </c>
+      <c r="F494" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="4" t="inlineStr">
@@ -20173,6 +22643,11 @@
       </c>
       <c r="E495" s="6" t="n">
         <v>0.87</v>
+      </c>
+      <c r="F495" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="496">
@@ -20217,6 +22692,11 @@
       <c r="E496" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F496" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="4" t="inlineStr">
@@ -20257,6 +22737,11 @@
       </c>
       <c r="E497" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F497" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="498">
@@ -20300,6 +22785,11 @@
       <c r="E498" s="6" t="n">
         <v>0.88</v>
       </c>
+      <c r="F498" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="4" t="inlineStr">
@@ -20339,6 +22829,11 @@
       <c r="E499" s="6" t="n">
         <v>0.31</v>
       </c>
+      <c r="F499" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="4" t="inlineStr">
@@ -20373,6 +22868,11 @@
       </c>
       <c r="E500" s="6" t="n">
         <v>0.17</v>
+      </c>
+      <c r="F500" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="501">
@@ -20411,6 +22911,11 @@
       </c>
       <c r="E501" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F501" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="502">
@@ -20452,6 +22957,11 @@
       <c r="E502" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F502" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="4" t="inlineStr">
@@ -20489,6 +22999,11 @@
       <c r="E503" s="6" t="n">
         <v>0.49</v>
       </c>
+      <c r="F503" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="4" t="inlineStr">
@@ -20524,6 +23039,11 @@
       </c>
       <c r="E504" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F504" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="505">
@@ -20565,6 +23085,11 @@
       <c r="E505" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F505" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="4" t="inlineStr">
@@ -20610,6 +23135,11 @@
       </c>
       <c r="E506" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F506" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="507">
@@ -20658,6 +23188,11 @@
       <c r="E507" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F507" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="4" t="inlineStr">
@@ -20696,6 +23231,11 @@
       </c>
       <c r="E508" s="6" t="n">
         <v>0.12</v>
+      </c>
+      <c r="F508" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="509">
@@ -20742,6 +23282,11 @@
       <c r="E509" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F509" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="4" t="inlineStr">
@@ -20784,6 +23329,11 @@
       <c r="E510" s="6" t="n">
         <v>0.46</v>
       </c>
+      <c r="F510" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="4" t="inlineStr">
@@ -20815,6 +23365,11 @@
       </c>
       <c r="E511" s="6" t="n">
         <v>0.15</v>
+      </c>
+      <c r="F511" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="512">
@@ -20849,6 +23404,11 @@
       <c r="E512" s="6" t="n">
         <v>0.61</v>
       </c>
+      <c r="F512" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="4" t="inlineStr">
@@ -20880,6 +23440,11 @@
       </c>
       <c r="E513" s="6" t="n">
         <v>0.26</v>
+      </c>
+      <c r="F513" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="514">
@@ -20926,6 +23491,11 @@
       </c>
       <c r="E514" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F514" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="515">
@@ -20976,6 +23546,11 @@
       <c r="E515" s="6" t="n">
         <v>0.2</v>
       </c>
+      <c r="F515" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="4" t="inlineStr">
@@ -21018,6 +23593,11 @@
       <c r="E516" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F516" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="4" t="inlineStr">
@@ -21052,6 +23632,11 @@
       <c r="E517" s="6" t="n">
         <v>0.14</v>
       </c>
+      <c r="F517" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="4" t="inlineStr">
@@ -21084,6 +23669,11 @@
       </c>
       <c r="E518" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F518" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="519">
@@ -21124,6 +23714,11 @@
       <c r="E519" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F519" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="4" t="inlineStr">
@@ -21163,6 +23758,11 @@
       <c r="E520" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F520" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="4" t="inlineStr">
@@ -21201,6 +23801,11 @@
       <c r="E521" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F521" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="4" t="inlineStr">
@@ -21238,6 +23843,11 @@
       <c r="E522" s="6" t="n">
         <v>0.61</v>
       </c>
+      <c r="F522" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="4" t="inlineStr">
@@ -21275,6 +23885,11 @@
       <c r="E523" s="6" t="n">
         <v>0.61</v>
       </c>
+      <c r="F523" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="4" t="inlineStr">
@@ -21311,6 +23926,11 @@
       </c>
       <c r="E524" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F524" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="525">
@@ -21345,6 +23965,11 @@
       </c>
       <c r="E525" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F525" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="526">
@@ -21382,6 +24007,11 @@
       </c>
       <c r="E526" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F526" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="527">
@@ -21421,6 +24051,11 @@
       <c r="E527" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F527" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="4" t="inlineStr">
@@ -21454,6 +24089,11 @@
       </c>
       <c r="E528" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F528" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="529">
@@ -21504,6 +24144,11 @@
       <c r="E529" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F529" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="4" t="inlineStr">
@@ -21551,6 +24196,11 @@
       </c>
       <c r="E530" s="6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F530" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="531">
@@ -21602,6 +24252,11 @@
       <c r="E531" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F531" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="4" t="inlineStr">
@@ -21650,6 +24305,11 @@
       </c>
       <c r="E532" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F532" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="533">
@@ -21701,6 +24361,11 @@
       <c r="E533" s="6" t="n">
         <v>0.64</v>
       </c>
+      <c r="F533" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="4" t="inlineStr">
@@ -21730,6 +24395,11 @@
       <c r="E534" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F534" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="4" t="inlineStr">
@@ -21759,6 +24429,11 @@
       <c r="E535" s="6" t="n">
         <v>0.04</v>
       </c>
+      <c r="F535" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="4" t="inlineStr">
@@ -21787,6 +24462,11 @@
       </c>
       <c r="E536" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F536" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="537">
@@ -21823,6 +24503,11 @@
       <c r="E537" s="6" t="n">
         <v>0.75</v>
       </c>
+      <c r="F537" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="4" t="inlineStr">
@@ -21856,6 +24541,11 @@
       <c r="E538" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F538" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="4" t="inlineStr">
@@ -21889,6 +24579,11 @@
       <c r="E539" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F539" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="4" t="inlineStr">
@@ -21921,6 +24616,11 @@
       </c>
       <c r="E540" s="6" t="n">
         <v>0.16</v>
+      </c>
+      <c r="F540" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="541">
@@ -21957,6 +24657,11 @@
       <c r="E541" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F541" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="4" t="inlineStr">
@@ -21991,6 +24696,11 @@
       </c>
       <c r="E542" s="6" t="n">
         <v>0.3</v>
+      </c>
+      <c r="F542" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="543">
@@ -22029,6 +24739,11 @@
       <c r="E543" s="6" t="n">
         <v>0.12</v>
       </c>
+      <c r="F543" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="4" t="inlineStr">
@@ -22063,6 +24778,11 @@
       </c>
       <c r="E544" s="6" t="n">
         <v>0.35</v>
+      </c>
+      <c r="F544" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="545">
@@ -22108,6 +24828,11 @@
       <c r="E545" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F545" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="4" t="inlineStr">
@@ -22142,6 +24867,11 @@
       </c>
       <c r="E546" s="6" t="n">
         <v>0.1</v>
+      </c>
+      <c r="F546" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="547">
@@ -22186,6 +24916,11 @@
       <c r="E547" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F547" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="4" t="inlineStr">
@@ -22228,6 +24963,11 @@
       <c r="E548" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F548" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="4" t="inlineStr">
@@ -22267,6 +25007,11 @@
       <c r="E549" s="6" t="n">
         <v>0.91</v>
       </c>
+      <c r="F549" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="4" t="inlineStr">
@@ -22305,6 +25050,11 @@
       <c r="E550" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F550" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="4" t="inlineStr">
@@ -22343,6 +25093,11 @@
       <c r="E551" s="6" t="n">
         <v>0.08</v>
       </c>
+      <c r="F551" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="4" t="inlineStr">
@@ -22374,6 +25129,11 @@
       <c r="E552" s="6" t="n">
         <v>0.3</v>
       </c>
+      <c r="F552" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="4" t="inlineStr">
@@ -22404,6 +25164,11 @@
       </c>
       <c r="E553" s="6" t="n">
         <v>0.35</v>
+      </c>
+      <c r="F553" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="554">
@@ -22442,6 +25207,11 @@
       <c r="E554" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F554" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="4" t="inlineStr">
@@ -22477,6 +25247,11 @@
       </c>
       <c r="E555" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F555" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="556">
@@ -22515,6 +25290,11 @@
       <c r="E556" s="6" t="n">
         <v>0.35</v>
       </c>
+      <c r="F556" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="4" t="inlineStr">
@@ -22548,6 +25328,11 @@
       <c r="E557" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F557" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="4" t="inlineStr">
@@ -22580,6 +25365,11 @@
       <c r="E558" s="6" t="n">
         <v>0.23</v>
       </c>
+      <c r="F558" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="4" t="inlineStr">
@@ -22613,6 +25403,11 @@
       <c r="E559" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F559" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="4" t="inlineStr">
@@ -22645,6 +25440,11 @@
       </c>
       <c r="E560" s="6" t="n">
         <v>0.29</v>
+      </c>
+      <c r="F560" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="561">
@@ -22684,6 +25484,11 @@
       <c r="E561" s="6" t="n">
         <v>0.19</v>
       </c>
+      <c r="F561" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="4" t="inlineStr">
@@ -22719,6 +25524,11 @@
       <c r="E562" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F562" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="4" t="inlineStr">
@@ -22752,6 +25562,11 @@
       </c>
       <c r="E563" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F563" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="564">
@@ -22788,6 +25603,11 @@
       <c r="E564" s="6" t="n">
         <v>0.41</v>
       </c>
+      <c r="F564" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="4" t="inlineStr">
@@ -22823,6 +25643,11 @@
       <c r="E565" s="6" t="n">
         <v>0.18</v>
       </c>
+      <c r="F565" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="4" t="inlineStr">
@@ -22857,6 +25682,11 @@
       </c>
       <c r="E566" s="6" t="n">
         <v>0.24</v>
+      </c>
+      <c r="F566" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="567">
@@ -22899,6 +25729,11 @@
       </c>
       <c r="E567" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F567" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="568">
@@ -22943,6 +25778,11 @@
       <c r="E568" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F568" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="4" t="inlineStr">
@@ -22985,6 +25825,11 @@
       <c r="E569" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F569" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="4" t="inlineStr">
@@ -23024,6 +25869,11 @@
       <c r="E570" s="6" t="n">
         <v>0.34</v>
       </c>
+      <c r="F570" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="4" t="inlineStr">
@@ -23063,6 +25913,11 @@
       <c r="E571" s="6" t="n">
         <v>0.06</v>
       </c>
+      <c r="F571" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="4" t="inlineStr">
@@ -23096,6 +25951,11 @@
       <c r="E572" s="6" t="n">
         <v>0.4</v>
       </c>
+      <c r="F572" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="4" t="inlineStr">
@@ -23126,6 +25986,11 @@
       </c>
       <c r="E573" s="6" t="n">
         <v>0.4</v>
+      </c>
+      <c r="F573" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="574">
@@ -23156,6 +26021,11 @@
       <c r="E574" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F574" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="4" t="inlineStr">
@@ -23187,6 +26057,11 @@
       <c r="E575" s="6" t="n">
         <v>0.32</v>
       </c>
+      <c r="F575" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="4" t="inlineStr">
@@ -23217,6 +26092,11 @@
       </c>
       <c r="E576" s="6" t="n">
         <v>0.33</v>
+      </c>
+      <c r="F576" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="577">
@@ -23252,6 +26132,11 @@
       </c>
       <c r="E577" s="6" t="n">
         <v>0.03</v>
+      </c>
+      <c r="F577" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="578">
@@ -23291,6 +26176,11 @@
       <c r="E578" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F578" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="4" t="inlineStr">
@@ -23329,6 +26219,11 @@
       <c r="E579" s="6" t="n">
         <v>0.64</v>
       </c>
+      <c r="F579" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="4" t="inlineStr">
@@ -23374,6 +26269,11 @@
       <c r="E580" s="6" t="n">
         <v>0</v>
       </c>
+      <c r="F580" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="4" t="inlineStr">
@@ -23417,6 +26317,11 @@
       <c r="E581" s="6" t="n">
         <v>0.73</v>
       </c>
+      <c r="F581" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="4" t="inlineStr">
@@ -23458,6 +26363,11 @@
       </c>
       <c r="E582" s="6" t="n">
         <v>1</v>
+      </c>
+      <c r="F582" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="583">
@@ -23501,6 +26411,11 @@
       </c>
       <c r="E583" s="6" t="n">
         <v>0.5600000000000001</v>
+      </c>
+      <c r="F583" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="584">
@@ -23544,6 +26459,11 @@
       <c r="E584" s="6" t="n">
         <v>0.16</v>
       </c>
+      <c r="F584" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="4" t="inlineStr">
@@ -23586,6 +26506,11 @@
       <c r="E585" s="6" t="n">
         <v>0.15</v>
       </c>
+      <c r="F585" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="4" t="inlineStr">
@@ -23628,6 +26553,11 @@
       <c r="E586" s="6" t="n">
         <v>0.29</v>
       </c>
+      <c r="F586" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="4" t="inlineStr">
@@ -23670,6 +26600,11 @@
       <c r="E587" s="6" t="n">
         <v>0.22</v>
       </c>
+      <c r="F587" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="4" t="inlineStr">
@@ -23707,6 +26642,11 @@
       </c>
       <c r="E588" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F588" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="589">
@@ -23750,6 +26690,11 @@
       <c r="E589" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F589" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="4" t="inlineStr">
@@ -23792,6 +26737,11 @@
       <c r="E590" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F590" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="4" t="inlineStr">
@@ -23832,6 +26782,11 @@
       </c>
       <c r="E591" s="6" t="n">
         <v>0</v>
+      </c>
+      <c r="F591" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="592">
@@ -23875,6 +26830,11 @@
       <c r="E592" s="6" t="n">
         <v>1</v>
       </c>
+      <c r="F592" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="4" t="inlineStr">
@@ -23916,6 +26876,11 @@
       <c r="E593" s="6" t="n">
         <v>0.25</v>
       </c>
+      <c r="F593" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="4" t="inlineStr">
@@ -23957,6 +26922,11 @@
       <c r="E594" s="6" t="n">
         <v>0.09</v>
       </c>
+      <c r="F594" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="4" t="inlineStr">
@@ -23997,6 +26967,11 @@
       </c>
       <c r="E595" s="6" t="n">
         <v>0.04</v>
+      </c>
+      <c r="F595" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="596">
@@ -24034,6 +27009,11 @@
       <c r="E596" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F596" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="4" t="inlineStr">
@@ -24070,6 +27050,11 @@
       <c r="E597" s="6" t="n">
         <v>0.13</v>
       </c>
+      <c r="F597" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="4" t="inlineStr">
@@ -24126,6 +27111,11 @@
       <c r="E598" s="6" t="n">
         <v>0.38</v>
       </c>
+      <c r="F598" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="4" t="inlineStr">
@@ -24182,6 +27172,11 @@
       <c r="E599" s="6" t="n">
         <v>0.82</v>
       </c>
+      <c r="F599" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="4" t="inlineStr">
@@ -24237,6 +27232,11 @@
       </c>
       <c r="E600" s="6" t="n">
         <v>0.22</v>
+      </c>
+      <c r="F600" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="601">
@@ -24272,6 +27272,11 @@
       <c r="E601" s="6" t="n">
         <v>0.07000000000000001</v>
       </c>
+      <c r="F601" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="4" t="inlineStr">
@@ -24302,6 +27307,11 @@
       </c>
       <c r="E602" s="6" t="n">
         <v>0.09</v>
+      </c>
+      <c r="F602" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
       </c>
     </row>
     <row r="603">
@@ -24337,6 +27347,11 @@
       <c r="E603" s="6" t="n">
         <v>0.05</v>
       </c>
+      <c r="F603" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="4" t="inlineStr">
@@ -24368,6 +27383,11 @@
       <c r="E604" s="6" t="n">
         <v>0.03</v>
       </c>
+      <c r="F604" s="5" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
